--- a/config_1.19/box_exchange_server.xlsx
+++ b/config_1.19/box_exchange_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4873,7 +4873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4951,9 +4951,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4978,7 +4975,6 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5007,9 +5003,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5036,13 +5029,6 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5068,33 +5054,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5105,8 +5069,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5388,8 +5352,8 @@
   <dimension ref="A1:Q73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -5410,7 +5374,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="40.5" customHeight="1">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -6626,7 +6590,7 @@
       <c r="A41" s="18">
         <v>40</v>
       </c>
-      <c r="B41" s="42" t="s">
+      <c r="B41" s="40" t="s">
         <v>434</v>
       </c>
       <c r="C41" s="18">
@@ -6650,62 +6614,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="26" customFormat="1">
+    <row r="42" spans="1:12" s="18" customFormat="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="18" t="s">
         <v>467</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="18">
         <v>1599523200</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D42" s="18">
         <v>1600099199</v>
       </c>
-      <c r="E42" s="29">
+      <c r="E42" s="28">
         <v>36</v>
       </c>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="26">
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="18">
         <v>41</v>
       </c>
-      <c r="L42" s="26">
+      <c r="L42" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" s="18" customFormat="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="40" t="s">
         <v>479</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="18">
         <v>1600732800</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="18">
         <v>1601308799</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="28">
         <v>37</v>
       </c>
-      <c r="K43" s="6">
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="18">
         <v>42</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" s="18" customFormat="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
-      <c r="B44" s="24" t="s">
+      <c r="B44" s="15" t="s">
         <v>490</v>
       </c>
       <c r="C44" s="13">
@@ -6714,21 +6683,26 @@
       <c r="D44" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="28">
         <v>38</v>
       </c>
-      <c r="K44" s="6">
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="18">
         <v>43</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" s="18" customFormat="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
-      <c r="B45" s="24" t="s">
+      <c r="B45" s="15" t="s">
         <v>491</v>
       </c>
       <c r="C45" s="13">
@@ -6737,21 +6711,26 @@
       <c r="D45" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="28">
         <v>39</v>
       </c>
-      <c r="K45" s="6">
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="18">
         <v>44</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" s="18" customFormat="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="15" t="s">
         <v>492</v>
       </c>
       <c r="C46" s="13">
@@ -6760,13 +6739,18 @@
       <c r="D46" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E46" s="28">
         <v>40</v>
       </c>
-      <c r="K46" s="6">
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="18">
         <v>45</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="18">
         <v>1</v>
       </c>
     </row>
@@ -6774,7 +6758,7 @@
       <c r="A47" s="18">
         <v>46</v>
       </c>
-      <c r="B47" s="42" t="s">
+      <c r="B47" s="40" t="s">
         <v>505</v>
       </c>
       <c r="C47" s="18">
@@ -6806,7 +6790,7 @@
       <c r="A48" s="18">
         <v>47</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="40" t="s">
         <v>521</v>
       </c>
       <c r="C48" s="18">
@@ -6838,7 +6822,7 @@
       <c r="A49" s="18">
         <v>48</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="40" t="s">
         <v>522</v>
       </c>
       <c r="C49" s="18">
@@ -6870,7 +6854,7 @@
       <c r="A50" s="18">
         <v>49</v>
       </c>
-      <c r="B50" s="42" t="s">
+      <c r="B50" s="40" t="s">
         <v>523</v>
       </c>
       <c r="C50" s="18">
@@ -6902,7 +6886,7 @@
       <c r="A51" s="18">
         <v>50</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="40" t="s">
         <v>524</v>
       </c>
       <c r="C51" s="18">
@@ -6934,7 +6918,7 @@
       <c r="A52" s="18">
         <v>51</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="40" t="s">
         <v>525</v>
       </c>
       <c r="C52" s="18">
@@ -6966,7 +6950,7 @@
       <c r="A53" s="18">
         <v>52</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="40" t="s">
         <v>526</v>
       </c>
       <c r="C53" s="18">
@@ -7106,119 +7090,119 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:12" s="48" customFormat="1">
+    <row r="58" spans="1:12" s="18" customFormat="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
-      <c r="B58" s="48" t="s">
+      <c r="B58" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C58" s="48">
+      <c r="C58" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D58" s="48">
+      <c r="D58" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E58" s="49">
+      <c r="E58" s="28">
         <v>52</v>
       </c>
-      <c r="F58" s="50"/>
-      <c r="G58" s="50"/>
-      <c r="H58" s="50"/>
-      <c r="I58" s="50"/>
-      <c r="J58" s="50"/>
-      <c r="K58" s="48">
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18">
         <v>57</v>
       </c>
-      <c r="L58" s="48">
+      <c r="L58" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="48" customFormat="1">
+    <row r="59" spans="1:12" s="18" customFormat="1">
       <c r="A59" s="18">
         <v>58</v>
       </c>
-      <c r="B59" s="48" t="s">
+      <c r="B59" s="18" t="s">
         <v>608</v>
       </c>
-      <c r="C59" s="48">
+      <c r="C59" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D59" s="48">
+      <c r="D59" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E59" s="49">
+      <c r="E59" s="28">
         <v>53</v>
       </c>
-      <c r="F59" s="50"/>
-      <c r="G59" s="50"/>
-      <c r="H59" s="50"/>
-      <c r="I59" s="50"/>
-      <c r="J59" s="50"/>
-      <c r="K59" s="48">
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="18">
         <v>58</v>
       </c>
-      <c r="L59" s="48">
+      <c r="L59" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="48" customFormat="1">
+    <row r="60" spans="1:12" s="18" customFormat="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="18" t="s">
         <v>609</v>
       </c>
-      <c r="C60" s="48">
+      <c r="C60" s="18">
         <v>1606176000</v>
       </c>
-      <c r="D60" s="48">
+      <c r="D60" s="18">
         <v>1606751999</v>
       </c>
-      <c r="E60" s="49">
+      <c r="E60" s="28">
         <v>54</v>
       </c>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="48">
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="18">
         <v>59</v>
       </c>
-      <c r="L60" s="48">
+      <c r="L60" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="60" customFormat="1">
+    <row r="61" spans="1:12" s="18" customFormat="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
-      <c r="B61" s="60" t="s">
+      <c r="B61" s="18" t="s">
         <v>668</v>
       </c>
-      <c r="C61" s="63">
+      <c r="C61" s="13">
         <v>1607385600</v>
       </c>
-      <c r="D61" s="63">
+      <c r="D61" s="13">
         <v>1607961599</v>
       </c>
-      <c r="E61" s="61">
+      <c r="E61" s="28">
         <v>55</v>
       </c>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="60">
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="18">
         <v>60</v>
       </c>
-      <c r="L61" s="60">
+      <c r="L61" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" s="18" customFormat="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -7231,18 +7215,22 @@
       <c r="D62" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E62" s="28">
         <v>56</v>
       </c>
       <c r="F62" s="13"/>
-      <c r="K62" s="6">
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="18">
         <v>61</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" s="18" customFormat="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -7255,13 +7243,18 @@
       <c r="D63" s="13">
         <v>32503651200</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="28">
         <v>57</v>
       </c>
-      <c r="K63" s="6">
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="18">
         <v>62</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7269,31 +7262,31 @@
       <c r="A64" s="18">
         <v>63</v>
       </c>
-      <c r="B64" s="72" t="s">
+      <c r="B64" s="40" t="s">
         <v>521</v>
       </c>
-      <c r="C64" s="74">
+      <c r="C64" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D64" s="74">
+      <c r="D64" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E64" s="73">
+      <c r="E64" s="28">
         <v>58</v>
       </c>
-      <c r="F64" s="76"/>
-      <c r="G64" s="76"/>
-      <c r="H64" s="76"/>
-      <c r="I64" s="76">
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17">
         <v>1</v>
       </c>
-      <c r="J64" s="76">
+      <c r="J64" s="17">
         <v>0</v>
       </c>
-      <c r="K64" s="71">
+      <c r="K64" s="18">
         <v>63</v>
       </c>
-      <c r="L64" s="71">
+      <c r="L64" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7301,31 +7294,31 @@
       <c r="A65" s="18">
         <v>64</v>
       </c>
-      <c r="B65" s="72" t="s">
+      <c r="B65" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="C65" s="74">
+      <c r="C65" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D65" s="74">
+      <c r="D65" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E65" s="73">
+      <c r="E65" s="28">
         <v>59</v>
       </c>
-      <c r="F65" s="76"/>
-      <c r="G65" s="76"/>
-      <c r="H65" s="76"/>
-      <c r="I65" s="76">
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17">
         <v>1</v>
       </c>
-      <c r="J65" s="76">
+      <c r="J65" s="17">
         <v>0</v>
       </c>
-      <c r="K65" s="71">
+      <c r="K65" s="18">
         <v>64</v>
       </c>
-      <c r="L65" s="71">
+      <c r="L65" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7333,31 +7326,31 @@
       <c r="A66" s="18">
         <v>65</v>
       </c>
-      <c r="B66" s="72" t="s">
+      <c r="B66" s="40" t="s">
         <v>523</v>
       </c>
-      <c r="C66" s="74">
+      <c r="C66" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D66" s="74">
+      <c r="D66" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E66" s="73">
+      <c r="E66" s="28">
         <v>60</v>
       </c>
-      <c r="F66" s="76"/>
-      <c r="G66" s="76"/>
-      <c r="H66" s="76"/>
-      <c r="I66" s="76">
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17">
         <v>1</v>
       </c>
-      <c r="J66" s="76">
+      <c r="J66" s="17">
         <v>0</v>
       </c>
-      <c r="K66" s="71">
+      <c r="K66" s="18">
         <v>65</v>
       </c>
-      <c r="L66" s="71">
+      <c r="L66" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7365,31 +7358,31 @@
       <c r="A67" s="18">
         <v>66</v>
       </c>
-      <c r="B67" s="72" t="s">
+      <c r="B67" s="40" t="s">
         <v>524</v>
       </c>
-      <c r="C67" s="74">
+      <c r="C67" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D67" s="74">
+      <c r="D67" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E67" s="73">
+      <c r="E67" s="28">
         <v>61</v>
       </c>
-      <c r="F67" s="76"/>
-      <c r="G67" s="76"/>
-      <c r="H67" s="76"/>
-      <c r="I67" s="76">
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17">
         <v>1</v>
       </c>
-      <c r="J67" s="76">
+      <c r="J67" s="17">
         <v>0</v>
       </c>
-      <c r="K67" s="71">
+      <c r="K67" s="18">
         <v>66</v>
       </c>
-      <c r="L67" s="71">
+      <c r="L67" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7397,31 +7390,31 @@
       <c r="A68" s="18">
         <v>67</v>
       </c>
-      <c r="B68" s="72" t="s">
+      <c r="B68" s="40" t="s">
         <v>525</v>
       </c>
-      <c r="C68" s="74">
+      <c r="C68" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D68" s="74">
+      <c r="D68" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E68" s="73">
+      <c r="E68" s="28">
         <v>62</v>
       </c>
-      <c r="F68" s="76"/>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76">
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17">
         <v>1</v>
       </c>
-      <c r="J68" s="76">
+      <c r="J68" s="17">
         <v>0</v>
       </c>
-      <c r="K68" s="71">
+      <c r="K68" s="18">
         <v>67</v>
       </c>
-      <c r="L68" s="71">
+      <c r="L68" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7429,31 +7422,31 @@
       <c r="A69" s="18">
         <v>68</v>
       </c>
-      <c r="B69" s="72" t="s">
+      <c r="B69" s="40" t="s">
         <v>526</v>
       </c>
-      <c r="C69" s="74">
+      <c r="C69" s="71">
         <v>1609200000</v>
       </c>
-      <c r="D69" s="74">
+      <c r="D69" s="71">
         <v>1609775999</v>
       </c>
-      <c r="E69" s="73">
+      <c r="E69" s="28">
         <v>63</v>
       </c>
-      <c r="F69" s="76"/>
-      <c r="G69" s="76"/>
-      <c r="H69" s="76"/>
-      <c r="I69" s="76">
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17">
         <v>1</v>
       </c>
-      <c r="J69" s="76">
+      <c r="J69" s="17">
         <v>0</v>
       </c>
-      <c r="K69" s="71">
+      <c r="K69" s="18">
         <v>68</v>
       </c>
-      <c r="L69" s="71">
+      <c r="L69" s="18">
         <v>1</v>
       </c>
     </row>
@@ -7461,111 +7454,111 @@
       <c r="A70" s="18">
         <v>69</v>
       </c>
-      <c r="B70" s="78" t="s">
+      <c r="B70" s="40" t="s">
         <v>678</v>
       </c>
-      <c r="C70" s="79">
+      <c r="C70" s="71">
         <v>1609804800</v>
       </c>
-      <c r="D70" s="79">
+      <c r="D70" s="71">
         <v>1610380799</v>
       </c>
-      <c r="E70" s="80">
+      <c r="E70" s="28">
         <v>64</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="81">
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="18">
         <v>69</v>
       </c>
-      <c r="L70" s="81">
+      <c r="L70" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" s="84" customFormat="1">
-      <c r="A71" s="84">
+    <row r="71" spans="1:12" s="18" customFormat="1">
+      <c r="A71" s="18">
         <v>70</v>
       </c>
-      <c r="B71" s="84" t="s">
+      <c r="B71" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="C71" s="84">
+      <c r="C71" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D71" s="84">
+      <c r="D71" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E71" s="85">
+      <c r="E71" s="28">
         <v>65</v>
       </c>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="52"/>
-      <c r="K71" s="84">
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="18">
         <v>70</v>
       </c>
-      <c r="L71" s="84">
+      <c r="L71" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" s="84" customFormat="1">
-      <c r="A72" s="84">
+    <row r="72" spans="1:12" s="18" customFormat="1">
+      <c r="A72" s="18">
         <v>71</v>
       </c>
-      <c r="B72" s="84" t="s">
+      <c r="B72" s="18" t="s">
         <v>692</v>
       </c>
-      <c r="C72" s="84">
+      <c r="C72" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D72" s="84">
+      <c r="D72" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E72" s="85">
+      <c r="E72" s="28">
         <v>66</v>
       </c>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
-      <c r="K72" s="84">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="18">
         <v>71</v>
       </c>
-      <c r="L72" s="84">
+      <c r="L72" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:12" s="84" customFormat="1">
-      <c r="A73" s="84">
+    <row r="73" spans="1:12" s="18" customFormat="1">
+      <c r="A73" s="18">
         <v>72</v>
       </c>
-      <c r="B73" s="84" t="s">
+      <c r="B73" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="C73" s="84">
+      <c r="C73" s="18">
         <v>1610409600</v>
       </c>
-      <c r="D73" s="84">
+      <c r="D73" s="18">
         <v>1610985599</v>
       </c>
-      <c r="E73" s="85">
+      <c r="E73" s="28">
         <v>67</v>
       </c>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="52"/>
-      <c r="K73" s="84">
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="18">
         <v>72</v>
       </c>
-      <c r="L73" s="84">
+      <c r="L73" s="18">
         <v>1</v>
       </c>
     </row>
@@ -8090,7 +8083,7 @@
       <c r="B36" s="17">
         <v>35</v>
       </c>
-      <c r="C36" s="42" t="s">
+      <c r="C36" s="40" t="s">
         <v>435</v>
       </c>
       <c r="D36" s="18">
@@ -8104,7 +8097,7 @@
       <c r="B37" s="25">
         <v>36</v>
       </c>
-      <c r="C37" s="30" t="s">
+      <c r="C37" s="29" t="s">
         <v>241</v>
       </c>
       <c r="D37" s="26">
@@ -8118,7 +8111,7 @@
       <c r="B38" s="17">
         <v>37</v>
       </c>
-      <c r="C38" s="43" t="s">
+      <c r="C38" s="41" t="s">
         <v>478</v>
       </c>
       <c r="D38" s="6">
@@ -8132,7 +8125,7 @@
       <c r="B39" s="17">
         <v>38</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="41" t="s">
         <v>493</v>
       </c>
       <c r="D39" s="6">
@@ -8146,7 +8139,7 @@
       <c r="B40" s="17">
         <v>39</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="C40" s="41" t="s">
         <v>494</v>
       </c>
       <c r="D40" s="6">
@@ -8160,7 +8153,7 @@
       <c r="B41" s="17">
         <v>40</v>
       </c>
-      <c r="C41" s="43" t="s">
+      <c r="C41" s="41" t="s">
         <v>495</v>
       </c>
       <c r="D41" s="6">
@@ -8272,7 +8265,7 @@
       <c r="B49" s="17">
         <v>48</v>
       </c>
-      <c r="C49" s="51" t="s">
+      <c r="C49" s="48" t="s">
         <v>591</v>
       </c>
       <c r="D49" s="18">
@@ -8286,7 +8279,7 @@
       <c r="B50" s="17">
         <v>49</v>
       </c>
-      <c r="C50" s="51" t="s">
+      <c r="C50" s="48" t="s">
         <v>590</v>
       </c>
       <c r="D50" s="18">
@@ -8300,7 +8293,7 @@
       <c r="B51" s="17">
         <v>50</v>
       </c>
-      <c r="C51" s="51" t="s">
+      <c r="C51" s="48" t="s">
         <v>592</v>
       </c>
       <c r="D51" s="18">
@@ -8321,56 +8314,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="50" customFormat="1">
-      <c r="A53" s="50">
+    <row r="53" spans="1:4" s="47" customFormat="1">
+      <c r="A53" s="47">
         <v>52</v>
       </c>
-      <c r="B53" s="50">
+      <c r="B53" s="47">
         <v>52</v>
       </c>
-      <c r="C53" s="48" t="s">
+      <c r="C53" s="46" t="s">
         <v>610</v>
       </c>
-      <c r="D53" s="48">
+      <c r="D53" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" s="50" customFormat="1">
-      <c r="A54" s="50">
+    <row r="54" spans="1:4" s="47" customFormat="1">
+      <c r="A54" s="47">
         <v>53</v>
       </c>
-      <c r="B54" s="50">
+      <c r="B54" s="47">
         <v>53</v>
       </c>
-      <c r="C54" s="48" t="s">
+      <c r="C54" s="46" t="s">
         <v>611</v>
       </c>
-      <c r="D54" s="48">
+      <c r="D54" s="46">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" s="50" customFormat="1">
-      <c r="A55" s="50">
+    <row r="55" spans="1:4" s="47" customFormat="1">
+      <c r="A55" s="47">
         <v>54</v>
       </c>
-      <c r="B55" s="50">
+      <c r="B55" s="47">
         <v>54</v>
       </c>
-      <c r="C55" s="48" t="s">
+      <c r="C55" s="46" t="s">
         <v>612</v>
       </c>
-      <c r="D55" s="48">
+      <c r="D55" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="50">
+      <c r="A56" s="47">
         <v>55</v>
       </c>
-      <c r="B56" s="50">
+      <c r="B56" s="47">
         <v>55</v>
       </c>
-      <c r="C56" s="64" t="s">
+      <c r="C56" s="58" t="s">
         <v>667</v>
       </c>
       <c r="D56" s="6">
@@ -8384,7 +8377,7 @@
       <c r="B57" s="17">
         <v>56</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="41" t="s">
         <v>672</v>
       </c>
       <c r="D57" s="6">
@@ -8398,7 +8391,7 @@
       <c r="B58" s="17">
         <v>57</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="41" t="s">
         <v>673</v>
       </c>
       <c r="D58" s="6">
@@ -8412,10 +8405,10 @@
       <c r="B59" s="17">
         <v>58</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="64" t="s">
         <v>589</v>
       </c>
-      <c r="D59" s="71">
+      <c r="D59" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8426,10 +8419,10 @@
       <c r="B60" s="17">
         <v>59</v>
       </c>
-      <c r="C60" s="70" t="s">
+      <c r="C60" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="D60" s="71">
+      <c r="D60" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8440,10 +8433,10 @@
       <c r="B61" s="17">
         <v>60</v>
       </c>
-      <c r="C61" s="70" t="s">
+      <c r="C61" s="64" t="s">
         <v>258</v>
       </c>
-      <c r="D61" s="71">
+      <c r="D61" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8454,10 +8447,10 @@
       <c r="B62" s="17">
         <v>61</v>
       </c>
-      <c r="C62" s="70" t="s">
+      <c r="C62" s="64" t="s">
         <v>259</v>
       </c>
-      <c r="D62" s="71">
+      <c r="D62" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8468,10 +8461,10 @@
       <c r="B63" s="17">
         <v>62</v>
       </c>
-      <c r="C63" s="70" t="s">
+      <c r="C63" s="64" t="s">
         <v>260</v>
       </c>
-      <c r="D63" s="71">
+      <c r="D63" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8482,10 +8475,10 @@
       <c r="B64" s="17">
         <v>63</v>
       </c>
-      <c r="C64" s="70" t="s">
+      <c r="C64" s="64" t="s">
         <v>261</v>
       </c>
-      <c r="D64" s="71">
+      <c r="D64" s="65">
         <v>1</v>
       </c>
     </row>
@@ -8496,10 +8489,10 @@
       <c r="B65" s="17">
         <v>64</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="38" t="s">
         <v>679</v>
       </c>
-      <c r="D65" s="40">
+      <c r="D65" s="38">
         <v>1</v>
       </c>
     </row>
@@ -8510,10 +8503,10 @@
       <c r="B66" s="17">
         <v>65</v>
       </c>
-      <c r="C66" s="84" t="s">
+      <c r="C66" s="70" t="s">
         <v>694</v>
       </c>
-      <c r="D66" s="84">
+      <c r="D66" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8524,10 +8517,10 @@
       <c r="B67" s="17">
         <v>66</v>
       </c>
-      <c r="C67" s="84" t="s">
+      <c r="C67" s="70" t="s">
         <v>695</v>
       </c>
-      <c r="D67" s="84">
+      <c r="D67" s="70">
         <v>1</v>
       </c>
     </row>
@@ -8538,10 +8531,10 @@
       <c r="B68" s="17">
         <v>67</v>
       </c>
-      <c r="C68" s="84" t="s">
+      <c r="C68" s="70" t="s">
         <v>696</v>
       </c>
-      <c r="D68" s="84">
+      <c r="D68" s="70">
         <v>1</v>
       </c>
     </row>
@@ -12203,380 +12196,380 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="35">
+      <c r="A257" s="34">
         <v>256</v>
       </c>
-      <c r="B257" s="35">
+      <c r="B257" s="34">
         <v>37</v>
       </c>
-      <c r="C257" s="35">
+      <c r="C257" s="34">
         <v>11701</v>
       </c>
-      <c r="D257" s="35">
+      <c r="D257" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="35">
+      <c r="A258" s="34">
         <v>257</v>
       </c>
-      <c r="B258" s="35">
+      <c r="B258" s="34">
         <v>37</v>
       </c>
-      <c r="C258" s="35">
+      <c r="C258" s="34">
         <v>11702</v>
       </c>
-      <c r="D258" s="35">
+      <c r="D258" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="35">
+      <c r="A259" s="34">
         <v>258</v>
       </c>
-      <c r="B259" s="35">
+      <c r="B259" s="34">
         <v>37</v>
       </c>
-      <c r="C259" s="35">
+      <c r="C259" s="34">
         <v>11703</v>
       </c>
-      <c r="D259" s="35">
+      <c r="D259" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="35">
+      <c r="A260" s="34">
         <v>259</v>
       </c>
-      <c r="B260" s="35">
+      <c r="B260" s="34">
         <v>37</v>
       </c>
-      <c r="C260" s="35">
+      <c r="C260" s="34">
         <v>11704</v>
       </c>
-      <c r="D260" s="35">
+      <c r="D260" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="35">
+      <c r="A261" s="34">
         <v>260</v>
       </c>
-      <c r="B261" s="35">
+      <c r="B261" s="34">
         <v>37</v>
       </c>
-      <c r="C261" s="35">
+      <c r="C261" s="34">
         <v>11705</v>
       </c>
-      <c r="D261" s="35">
+      <c r="D261" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="35">
+      <c r="A262" s="34">
         <v>261</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="34">
         <v>37</v>
       </c>
-      <c r="C262" s="35">
+      <c r="C262" s="34">
         <v>11706</v>
       </c>
-      <c r="D262" s="35">
+      <c r="D262" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="35">
+      <c r="A263" s="34">
         <v>262</v>
       </c>
-      <c r="B263" s="35">
+      <c r="B263" s="34">
         <v>37</v>
       </c>
-      <c r="C263" s="35">
+      <c r="C263" s="34">
         <v>11707</v>
       </c>
-      <c r="D263" s="35">
+      <c r="D263" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="35">
+      <c r="A264" s="34">
         <v>263</v>
       </c>
-      <c r="B264" s="35">
+      <c r="B264" s="34">
         <v>37</v>
       </c>
-      <c r="C264" s="35">
+      <c r="C264" s="34">
         <v>11708</v>
       </c>
-      <c r="D264" s="35">
+      <c r="D264" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="35">
+      <c r="A265" s="34">
         <v>264</v>
       </c>
-      <c r="B265" s="35">
+      <c r="B265" s="34">
         <v>37</v>
       </c>
-      <c r="C265" s="35">
+      <c r="C265" s="34">
         <v>11709</v>
       </c>
-      <c r="D265" s="35">
+      <c r="D265" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="35">
+      <c r="A266" s="34">
         <v>265</v>
       </c>
-      <c r="B266" s="35">
+      <c r="B266" s="34">
         <v>38</v>
       </c>
-      <c r="C266" s="35">
+      <c r="C266" s="34">
         <v>11710</v>
       </c>
-      <c r="D266" s="35">
+      <c r="D266" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="35">
+      <c r="A267" s="34">
         <v>266</v>
       </c>
-      <c r="B267" s="35">
+      <c r="B267" s="34">
         <v>38</v>
       </c>
-      <c r="C267" s="35">
+      <c r="C267" s="34">
         <v>11711</v>
       </c>
-      <c r="D267" s="35">
+      <c r="D267" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="35">
+      <c r="A268" s="34">
         <v>267</v>
       </c>
-      <c r="B268" s="35">
+      <c r="B268" s="34">
         <v>38</v>
       </c>
-      <c r="C268" s="35">
+      <c r="C268" s="34">
         <v>11712</v>
       </c>
-      <c r="D268" s="35">
+      <c r="D268" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="35">
+      <c r="A269" s="34">
         <v>268</v>
       </c>
-      <c r="B269" s="35">
+      <c r="B269" s="34">
         <v>38</v>
       </c>
-      <c r="C269" s="35">
+      <c r="C269" s="34">
         <v>11713</v>
       </c>
-      <c r="D269" s="35">
+      <c r="D269" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="35">
+      <c r="A270" s="34">
         <v>269</v>
       </c>
-      <c r="B270" s="35">
+      <c r="B270" s="34">
         <v>38</v>
       </c>
-      <c r="C270" s="35">
+      <c r="C270" s="34">
         <v>11714</v>
       </c>
-      <c r="D270" s="35">
+      <c r="D270" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="35">
+      <c r="A271" s="34">
         <v>270</v>
       </c>
-      <c r="B271" s="35">
+      <c r="B271" s="34">
         <v>38</v>
       </c>
-      <c r="C271" s="35">
+      <c r="C271" s="34">
         <v>11715</v>
       </c>
-      <c r="D271" s="35">
+      <c r="D271" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="35">
+      <c r="A272" s="34">
         <v>271</v>
       </c>
-      <c r="B272" s="35">
+      <c r="B272" s="34">
         <v>38</v>
       </c>
-      <c r="C272" s="35">
+      <c r="C272" s="34">
         <v>11716</v>
       </c>
-      <c r="D272" s="35">
+      <c r="D272" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="35">
+      <c r="A273" s="34">
         <v>272</v>
       </c>
-      <c r="B273" s="35">
+      <c r="B273" s="34">
         <v>38</v>
       </c>
-      <c r="C273" s="35">
+      <c r="C273" s="34">
         <v>11717</v>
       </c>
-      <c r="D273" s="35">
+      <c r="D273" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="35">
+      <c r="A274" s="34">
         <v>273</v>
       </c>
-      <c r="B274" s="35">
+      <c r="B274" s="34">
         <v>38</v>
       </c>
-      <c r="C274" s="35">
+      <c r="C274" s="34">
         <v>11718</v>
       </c>
-      <c r="D274" s="35">
+      <c r="D274" s="34">
         <v>166</v>
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="35">
+      <c r="A275" s="34">
         <v>274</v>
       </c>
-      <c r="B275" s="35">
+      <c r="B275" s="34">
         <v>39</v>
       </c>
-      <c r="C275" s="35">
+      <c r="C275" s="34">
         <v>11719</v>
       </c>
-      <c r="D275" s="35">
+      <c r="D275" s="34">
         <v>1340</v>
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="35">
+      <c r="A276" s="34">
         <v>275</v>
       </c>
-      <c r="B276" s="35">
+      <c r="B276" s="34">
         <v>39</v>
       </c>
-      <c r="C276" s="35">
+      <c r="C276" s="34">
         <v>11720</v>
       </c>
-      <c r="D276" s="35">
+      <c r="D276" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="35">
+      <c r="A277" s="34">
         <v>276</v>
       </c>
-      <c r="B277" s="35">
+      <c r="B277" s="34">
         <v>39</v>
       </c>
-      <c r="C277" s="35">
+      <c r="C277" s="34">
         <v>11721</v>
       </c>
-      <c r="D277" s="35">
+      <c r="D277" s="34">
         <v>1330</v>
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="35">
+      <c r="A278" s="34">
         <v>277</v>
       </c>
-      <c r="B278" s="35">
+      <c r="B278" s="34">
         <v>39</v>
       </c>
-      <c r="C278" s="35">
+      <c r="C278" s="34">
         <v>11722</v>
       </c>
-      <c r="D278" s="35">
+      <c r="D278" s="34">
         <v>1840</v>
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="35">
+      <c r="A279" s="34">
         <v>278</v>
       </c>
-      <c r="B279" s="35">
+      <c r="B279" s="34">
         <v>39</v>
       </c>
-      <c r="C279" s="35">
+      <c r="C279" s="34">
         <v>11723</v>
       </c>
-      <c r="D279" s="35">
+      <c r="D279" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="35">
+      <c r="A280" s="34">
         <v>279</v>
       </c>
-      <c r="B280" s="35">
+      <c r="B280" s="34">
         <v>39</v>
       </c>
-      <c r="C280" s="35">
+      <c r="C280" s="34">
         <v>11724</v>
       </c>
-      <c r="D280" s="35">
+      <c r="D280" s="34">
         <v>1830</v>
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="35">
+      <c r="A281" s="34">
         <v>280</v>
       </c>
-      <c r="B281" s="35">
+      <c r="B281" s="34">
         <v>39</v>
       </c>
-      <c r="C281" s="35">
+      <c r="C281" s="34">
         <v>11725</v>
       </c>
-      <c r="D281" s="35">
+      <c r="D281" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="35">
+      <c r="A282" s="34">
         <v>281</v>
       </c>
-      <c r="B282" s="35">
+      <c r="B282" s="34">
         <v>39</v>
       </c>
-      <c r="C282" s="35">
+      <c r="C282" s="34">
         <v>11726</v>
       </c>
-      <c r="D282" s="35">
+      <c r="D282" s="34">
         <v>167</v>
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="35">
+      <c r="A283" s="34">
         <v>282</v>
       </c>
-      <c r="B283" s="35">
+      <c r="B283" s="34">
         <v>39</v>
       </c>
-      <c r="C283" s="35">
+      <c r="C283" s="34">
         <v>11727</v>
       </c>
-      <c r="D283" s="35">
+      <c r="D283" s="34">
         <v>166</v>
       </c>
     </row>
@@ -13518,465 +13511,465 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:4" s="58" customFormat="1">
-      <c r="A351" s="58">
+    <row r="351" spans="1:4" s="55" customFormat="1">
+      <c r="A351" s="55">
         <v>350</v>
       </c>
-      <c r="B351" s="58">
+      <c r="B351" s="55">
         <v>57</v>
       </c>
-      <c r="C351" s="58">
+      <c r="C351" s="55">
         <v>11824</v>
       </c>
-      <c r="D351" s="58">
+      <c r="D351" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="352" spans="1:4" s="58" customFormat="1">
-      <c r="A352" s="58">
+    <row r="352" spans="1:4" s="55" customFormat="1">
+      <c r="A352" s="55">
         <v>351</v>
       </c>
-      <c r="B352" s="58">
+      <c r="B352" s="55">
         <v>57</v>
       </c>
-      <c r="C352" s="58">
+      <c r="C352" s="55">
         <v>11825</v>
       </c>
-      <c r="D352" s="58">
+      <c r="D352" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="353" spans="1:4" s="58" customFormat="1">
-      <c r="A353" s="58">
+    <row r="353" spans="1:4" s="55" customFormat="1">
+      <c r="A353" s="55">
         <v>352</v>
       </c>
-      <c r="B353" s="58">
+      <c r="B353" s="55">
         <v>57</v>
       </c>
-      <c r="C353" s="58">
+      <c r="C353" s="55">
         <v>11826</v>
       </c>
-      <c r="D353" s="58">
+      <c r="D353" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:4" s="58" customFormat="1">
-      <c r="A354" s="58">
+    <row r="354" spans="1:4" s="55" customFormat="1">
+      <c r="A354" s="55">
         <v>353</v>
       </c>
-      <c r="B354" s="58">
+      <c r="B354" s="55">
         <v>57</v>
       </c>
-      <c r="C354" s="58">
+      <c r="C354" s="55">
         <v>11827</v>
       </c>
-      <c r="D354" s="58">
+      <c r="D354" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:4" s="58" customFormat="1">
-      <c r="A355" s="58">
+    <row r="355" spans="1:4" s="55" customFormat="1">
+      <c r="A355" s="55">
         <v>354</v>
       </c>
-      <c r="B355" s="58">
+      <c r="B355" s="55">
         <v>57</v>
       </c>
-      <c r="C355" s="58">
+      <c r="C355" s="55">
         <v>11828</v>
       </c>
-      <c r="D355" s="58">
+      <c r="D355" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:4" s="58" customFormat="1">
-      <c r="A356" s="58">
+    <row r="356" spans="1:4" s="55" customFormat="1">
+      <c r="A356" s="55">
         <v>355</v>
       </c>
-      <c r="B356" s="58">
+      <c r="B356" s="55">
         <v>57</v>
       </c>
-      <c r="C356" s="58">
+      <c r="C356" s="55">
         <v>11829</v>
       </c>
-      <c r="D356" s="58">
+      <c r="D356" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:4" s="58" customFormat="1">
-      <c r="A357" s="58">
+    <row r="357" spans="1:4" s="55" customFormat="1">
+      <c r="A357" s="55">
         <v>356</v>
       </c>
-      <c r="B357" s="58">
+      <c r="B357" s="55">
         <v>57</v>
       </c>
-      <c r="C357" s="58">
+      <c r="C357" s="55">
         <v>11830</v>
       </c>
-      <c r="D357" s="58">
+      <c r="D357" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:4" s="58" customFormat="1">
-      <c r="A358" s="58">
+    <row r="358" spans="1:4" s="55" customFormat="1">
+      <c r="A358" s="55">
         <v>357</v>
       </c>
-      <c r="B358" s="58">
+      <c r="B358" s="55">
         <v>57</v>
       </c>
-      <c r="C358" s="58">
+      <c r="C358" s="55">
         <v>11831</v>
       </c>
-      <c r="D358" s="58">
+      <c r="D358" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:4" s="58" customFormat="1">
-      <c r="A359" s="58">
+    <row r="359" spans="1:4" s="55" customFormat="1">
+      <c r="A359" s="55">
         <v>358</v>
       </c>
-      <c r="B359" s="58">
+      <c r="B359" s="55">
         <v>57</v>
       </c>
-      <c r="C359" s="58">
+      <c r="C359" s="55">
         <v>11832</v>
       </c>
-      <c r="D359" s="58">
+      <c r="D359" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:4" s="53" customFormat="1">
-      <c r="A360" s="53">
+    <row r="360" spans="1:4" s="50" customFormat="1">
+      <c r="A360" s="50">
         <v>359</v>
       </c>
-      <c r="B360" s="59">
+      <c r="B360" s="56">
         <v>58</v>
       </c>
-      <c r="C360" s="53">
+      <c r="C360" s="50">
         <v>11833</v>
       </c>
-      <c r="D360" s="59">
+      <c r="D360" s="56">
         <v>20</v>
       </c>
     </row>
-    <row r="361" spans="1:4" s="53" customFormat="1">
-      <c r="A361" s="53">
+    <row r="361" spans="1:4" s="50" customFormat="1">
+      <c r="A361" s="50">
         <v>360</v>
       </c>
-      <c r="B361" s="59">
+      <c r="B361" s="56">
         <v>58</v>
       </c>
-      <c r="C361" s="53">
+      <c r="C361" s="50">
         <v>11834</v>
       </c>
-      <c r="D361" s="59">
+      <c r="D361" s="56">
         <v>25</v>
       </c>
     </row>
-    <row r="362" spans="1:4" s="53" customFormat="1">
-      <c r="A362" s="53">
+    <row r="362" spans="1:4" s="50" customFormat="1">
+      <c r="A362" s="50">
         <v>361</v>
       </c>
-      <c r="B362" s="59">
+      <c r="B362" s="56">
         <v>58</v>
       </c>
-      <c r="C362" s="53">
+      <c r="C362" s="50">
         <v>11835</v>
       </c>
-      <c r="D362" s="59">
+      <c r="D362" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:4" s="53" customFormat="1">
-      <c r="A363" s="53">
+    <row r="363" spans="1:4" s="50" customFormat="1">
+      <c r="A363" s="50">
         <v>362</v>
       </c>
-      <c r="B363" s="59">
+      <c r="B363" s="56">
         <v>58</v>
       </c>
-      <c r="C363" s="53">
+      <c r="C363" s="50">
         <v>11836</v>
       </c>
-      <c r="D363" s="59">
+      <c r="D363" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:4" s="53" customFormat="1">
-      <c r="A364" s="53">
+    <row r="364" spans="1:4" s="50" customFormat="1">
+      <c r="A364" s="50">
         <v>363</v>
       </c>
-      <c r="B364" s="59">
+      <c r="B364" s="56">
         <v>58</v>
       </c>
-      <c r="C364" s="53">
+      <c r="C364" s="50">
         <v>11837</v>
       </c>
-      <c r="D364" s="59">
+      <c r="D364" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:4" s="53" customFormat="1">
-      <c r="A365" s="53">
+    <row r="365" spans="1:4" s="50" customFormat="1">
+      <c r="A365" s="50">
         <v>364</v>
       </c>
-      <c r="B365" s="59">
+      <c r="B365" s="56">
         <v>58</v>
       </c>
-      <c r="C365" s="53">
+      <c r="C365" s="50">
         <v>11838</v>
       </c>
-      <c r="D365" s="59">
+      <c r="D365" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:4" s="53" customFormat="1">
-      <c r="A366" s="53">
+    <row r="366" spans="1:4" s="50" customFormat="1">
+      <c r="A366" s="50">
         <v>365</v>
       </c>
-      <c r="B366" s="59">
+      <c r="B366" s="56">
         <v>58</v>
       </c>
-      <c r="C366" s="53">
+      <c r="C366" s="50">
         <v>11839</v>
       </c>
-      <c r="D366" s="59">
+      <c r="D366" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:4" s="53" customFormat="1">
-      <c r="A367" s="53">
+    <row r="367" spans="1:4" s="50" customFormat="1">
+      <c r="A367" s="50">
         <v>366</v>
       </c>
-      <c r="B367" s="59">
+      <c r="B367" s="56">
         <v>58</v>
       </c>
-      <c r="C367" s="53">
+      <c r="C367" s="50">
         <v>11840</v>
       </c>
-      <c r="D367" s="59">
+      <c r="D367" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:4" s="53" customFormat="1">
-      <c r="A368" s="53">
+    <row r="368" spans="1:4" s="50" customFormat="1">
+      <c r="A368" s="50">
         <v>367</v>
       </c>
-      <c r="B368" s="59">
+      <c r="B368" s="56">
         <v>58</v>
       </c>
-      <c r="C368" s="53">
+      <c r="C368" s="50">
         <v>11841</v>
       </c>
-      <c r="D368" s="59">
+      <c r="D368" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:4" s="47" customFormat="1">
-      <c r="A369" s="47">
+    <row r="369" spans="1:4" s="45" customFormat="1">
+      <c r="A369" s="45">
         <v>368</v>
       </c>
-      <c r="B369" s="58">
+      <c r="B369" s="55">
         <v>59</v>
       </c>
-      <c r="C369" s="47">
+      <c r="C369" s="45">
         <v>11842</v>
       </c>
-      <c r="D369" s="58">
+      <c r="D369" s="55">
         <v>20</v>
       </c>
     </row>
-    <row r="370" spans="1:4" s="47" customFormat="1">
-      <c r="A370" s="47">
+    <row r="370" spans="1:4" s="45" customFormat="1">
+      <c r="A370" s="45">
         <v>369</v>
       </c>
-      <c r="B370" s="58">
+      <c r="B370" s="55">
         <v>59</v>
       </c>
-      <c r="C370" s="47">
+      <c r="C370" s="45">
         <v>11843</v>
       </c>
-      <c r="D370" s="58">
+      <c r="D370" s="55">
         <v>25</v>
       </c>
     </row>
-    <row r="371" spans="1:4" s="47" customFormat="1">
-      <c r="A371" s="47">
+    <row r="371" spans="1:4" s="45" customFormat="1">
+      <c r="A371" s="45">
         <v>370</v>
       </c>
-      <c r="B371" s="58">
+      <c r="B371" s="55">
         <v>59</v>
       </c>
-      <c r="C371" s="47">
+      <c r="C371" s="45">
         <v>11844</v>
       </c>
-      <c r="D371" s="58">
+      <c r="D371" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:4" s="47" customFormat="1">
-      <c r="A372" s="47">
+    <row r="372" spans="1:4" s="45" customFormat="1">
+      <c r="A372" s="45">
         <v>371</v>
       </c>
-      <c r="B372" s="58">
+      <c r="B372" s="55">
         <v>59</v>
       </c>
-      <c r="C372" s="47">
+      <c r="C372" s="45">
         <v>11845</v>
       </c>
-      <c r="D372" s="58">
+      <c r="D372" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:4" s="47" customFormat="1">
-      <c r="A373" s="47">
+    <row r="373" spans="1:4" s="45" customFormat="1">
+      <c r="A373" s="45">
         <v>372</v>
       </c>
-      <c r="B373" s="58">
+      <c r="B373" s="55">
         <v>59</v>
       </c>
-      <c r="C373" s="47">
+      <c r="C373" s="45">
         <v>11846</v>
       </c>
-      <c r="D373" s="58">
+      <c r="D373" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:4" s="47" customFormat="1">
-      <c r="A374" s="47">
+    <row r="374" spans="1:4" s="45" customFormat="1">
+      <c r="A374" s="45">
         <v>373</v>
       </c>
-      <c r="B374" s="58">
+      <c r="B374" s="55">
         <v>59</v>
       </c>
-      <c r="C374" s="47">
+      <c r="C374" s="45">
         <v>11847</v>
       </c>
-      <c r="D374" s="58">
+      <c r="D374" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:4" s="47" customFormat="1">
-      <c r="A375" s="47">
+    <row r="375" spans="1:4" s="45" customFormat="1">
+      <c r="A375" s="45">
         <v>374</v>
       </c>
-      <c r="B375" s="58">
+      <c r="B375" s="55">
         <v>59</v>
       </c>
-      <c r="C375" s="47">
+      <c r="C375" s="45">
         <v>11848</v>
       </c>
-      <c r="D375" s="58">
+      <c r="D375" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:4" s="47" customFormat="1">
-      <c r="A376" s="47">
+    <row r="376" spans="1:4" s="45" customFormat="1">
+      <c r="A376" s="45">
         <v>375</v>
       </c>
-      <c r="B376" s="58">
+      <c r="B376" s="55">
         <v>59</v>
       </c>
-      <c r="C376" s="47">
+      <c r="C376" s="45">
         <v>11849</v>
       </c>
-      <c r="D376" s="58">
+      <c r="D376" s="55">
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:4" s="47" customFormat="1">
-      <c r="A377" s="47">
+    <row r="377" spans="1:4" s="45" customFormat="1">
+      <c r="A377" s="45">
         <v>376</v>
       </c>
-      <c r="B377" s="58">
+      <c r="B377" s="55">
         <v>59</v>
       </c>
-      <c r="C377" s="47">
+      <c r="C377" s="45">
         <v>11850</v>
       </c>
-      <c r="D377" s="58">
+      <c r="D377" s="55">
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:4" s="63" customFormat="1">
-      <c r="A378" s="63">
+    <row r="378" spans="1:4" s="57" customFormat="1">
+      <c r="A378" s="57">
         <v>377</v>
       </c>
-      <c r="B378" s="63">
+      <c r="B378" s="57">
         <v>60</v>
       </c>
-      <c r="C378" s="63">
+      <c r="C378" s="57">
         <v>11851</v>
       </c>
-      <c r="D378" s="63">
+      <c r="D378" s="57">
         <v>20</v>
       </c>
     </row>
-    <row r="379" spans="1:4" s="63" customFormat="1">
-      <c r="A379" s="63">
+    <row r="379" spans="1:4" s="57" customFormat="1">
+      <c r="A379" s="57">
         <v>378</v>
       </c>
-      <c r="B379" s="63">
+      <c r="B379" s="57">
         <v>60</v>
       </c>
-      <c r="C379" s="63">
+      <c r="C379" s="57">
         <v>11852</v>
       </c>
-      <c r="D379" s="63">
+      <c r="D379" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="380" spans="1:4" s="63" customFormat="1">
-      <c r="A380" s="63">
+    <row r="380" spans="1:4" s="57" customFormat="1">
+      <c r="A380" s="57">
         <v>379</v>
       </c>
-      <c r="B380" s="63">
+      <c r="B380" s="57">
         <v>60</v>
       </c>
-      <c r="C380" s="63">
+      <c r="C380" s="57">
         <v>11853</v>
       </c>
-      <c r="D380" s="63">
+      <c r="D380" s="57">
         <v>25</v>
       </c>
     </row>
-    <row r="381" spans="1:4" s="63" customFormat="1">
-      <c r="A381" s="63">
+    <row r="381" spans="1:4" s="57" customFormat="1">
+      <c r="A381" s="57">
         <v>380</v>
       </c>
-      <c r="B381" s="63">
+      <c r="B381" s="57">
         <v>60</v>
       </c>
-      <c r="C381" s="63">
+      <c r="C381" s="57">
         <v>11854</v>
       </c>
-      <c r="D381" s="63">
+      <c r="D381" s="57">
         <v>27</v>
       </c>
     </row>
-    <row r="382" spans="1:4" s="63" customFormat="1">
-      <c r="A382" s="63">
+    <row r="382" spans="1:4" s="57" customFormat="1">
+      <c r="A382" s="57">
         <v>381</v>
       </c>
-      <c r="B382" s="63">
+      <c r="B382" s="57">
         <v>60</v>
       </c>
-      <c r="C382" s="63">
+      <c r="C382" s="57">
         <v>11855</v>
       </c>
-      <c r="D382" s="63">
+      <c r="D382" s="57">
         <v>3</v>
       </c>
     </row>
-    <row r="383" spans="1:4" s="63" customFormat="1">
-      <c r="A383" s="63">
+    <row r="383" spans="1:4" s="57" customFormat="1">
+      <c r="A383" s="57">
         <v>382</v>
       </c>
-      <c r="B383" s="63">
+      <c r="B383" s="57">
         <v>60</v>
       </c>
-      <c r="C383" s="63">
+      <c r="C383" s="57">
         <v>11856</v>
       </c>
-      <c r="D383" s="63">
+      <c r="D383" s="57">
         <v>0</v>
       </c>
     </row>
@@ -13987,7 +13980,7 @@
       <c r="B384" s="13">
         <v>61</v>
       </c>
-      <c r="C384" s="63">
+      <c r="C384" s="57">
         <v>11857</v>
       </c>
       <c r="D384" s="13">
@@ -14001,7 +13994,7 @@
       <c r="B385" s="13">
         <v>62</v>
       </c>
-      <c r="C385" s="63">
+      <c r="C385" s="57">
         <v>11858</v>
       </c>
       <c r="D385" s="13">
@@ -14012,13 +14005,13 @@
       <c r="A386" s="13">
         <v>385</v>
       </c>
-      <c r="B386" s="75">
+      <c r="B386" s="66">
         <v>63</v>
       </c>
-      <c r="C386" s="75">
+      <c r="C386" s="66">
         <v>11859</v>
       </c>
-      <c r="D386" s="75">
+      <c r="D386" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14026,13 +14019,13 @@
       <c r="A387" s="13">
         <v>386</v>
       </c>
-      <c r="B387" s="75">
+      <c r="B387" s="66">
         <v>63</v>
       </c>
-      <c r="C387" s="75">
+      <c r="C387" s="66">
         <v>11860</v>
       </c>
-      <c r="D387" s="75">
+      <c r="D387" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14040,13 +14033,13 @@
       <c r="A388" s="13">
         <v>387</v>
       </c>
-      <c r="B388" s="75">
+      <c r="B388" s="66">
         <v>63</v>
       </c>
-      <c r="C388" s="75">
+      <c r="C388" s="66">
         <v>11861</v>
       </c>
-      <c r="D388" s="75">
+      <c r="D388" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14054,13 +14047,13 @@
       <c r="A389" s="13">
         <v>388</v>
       </c>
-      <c r="B389" s="75">
+      <c r="B389" s="66">
         <v>63</v>
       </c>
-      <c r="C389" s="75">
+      <c r="C389" s="66">
         <v>11862</v>
       </c>
-      <c r="D389" s="75">
+      <c r="D389" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14068,13 +14061,13 @@
       <c r="A390" s="13">
         <v>389</v>
       </c>
-      <c r="B390" s="75">
+      <c r="B390" s="66">
         <v>63</v>
       </c>
-      <c r="C390" s="75">
+      <c r="C390" s="66">
         <v>11863</v>
       </c>
-      <c r="D390" s="75">
+      <c r="D390" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14082,13 +14075,13 @@
       <c r="A391" s="13">
         <v>390</v>
       </c>
-      <c r="B391" s="75">
+      <c r="B391" s="66">
         <v>63</v>
       </c>
-      <c r="C391" s="75">
+      <c r="C391" s="66">
         <v>11864</v>
       </c>
-      <c r="D391" s="75">
+      <c r="D391" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14096,13 +14089,13 @@
       <c r="A392" s="13">
         <v>391</v>
       </c>
-      <c r="B392" s="75">
+      <c r="B392" s="66">
         <v>64</v>
       </c>
-      <c r="C392" s="75">
+      <c r="C392" s="66">
         <v>11865</v>
       </c>
-      <c r="D392" s="75">
+      <c r="D392" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14110,13 +14103,13 @@
       <c r="A393" s="13">
         <v>392</v>
       </c>
-      <c r="B393" s="75">
+      <c r="B393" s="66">
         <v>64</v>
       </c>
-      <c r="C393" s="75">
+      <c r="C393" s="66">
         <v>11866</v>
       </c>
-      <c r="D393" s="75">
+      <c r="D393" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14124,13 +14117,13 @@
       <c r="A394" s="13">
         <v>393</v>
       </c>
-      <c r="B394" s="75">
+      <c r="B394" s="66">
         <v>64</v>
       </c>
-      <c r="C394" s="75">
+      <c r="C394" s="66">
         <v>11867</v>
       </c>
-      <c r="D394" s="75">
+      <c r="D394" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14138,13 +14131,13 @@
       <c r="A395" s="13">
         <v>394</v>
       </c>
-      <c r="B395" s="75">
+      <c r="B395" s="66">
         <v>64</v>
       </c>
-      <c r="C395" s="75">
+      <c r="C395" s="66">
         <v>11868</v>
       </c>
-      <c r="D395" s="75">
+      <c r="D395" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14152,13 +14145,13 @@
       <c r="A396" s="13">
         <v>395</v>
       </c>
-      <c r="B396" s="75">
+      <c r="B396" s="66">
         <v>64</v>
       </c>
-      <c r="C396" s="75">
+      <c r="C396" s="66">
         <v>11869</v>
       </c>
-      <c r="D396" s="75">
+      <c r="D396" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14166,13 +14159,13 @@
       <c r="A397" s="13">
         <v>396</v>
       </c>
-      <c r="B397" s="75">
+      <c r="B397" s="66">
         <v>64</v>
       </c>
-      <c r="C397" s="75">
+      <c r="C397" s="66">
         <v>11870</v>
       </c>
-      <c r="D397" s="75">
+      <c r="D397" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14180,13 +14173,13 @@
       <c r="A398" s="13">
         <v>397</v>
       </c>
-      <c r="B398" s="75">
+      <c r="B398" s="66">
         <v>65</v>
       </c>
-      <c r="C398" s="75">
+      <c r="C398" s="66">
         <v>11871</v>
       </c>
-      <c r="D398" s="75">
+      <c r="D398" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14194,13 +14187,13 @@
       <c r="A399" s="13">
         <v>398</v>
       </c>
-      <c r="B399" s="75">
+      <c r="B399" s="66">
         <v>65</v>
       </c>
-      <c r="C399" s="75">
+      <c r="C399" s="66">
         <v>11872</v>
       </c>
-      <c r="D399" s="75">
+      <c r="D399" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14208,13 +14201,13 @@
       <c r="A400" s="13">
         <v>399</v>
       </c>
-      <c r="B400" s="75">
+      <c r="B400" s="66">
         <v>65</v>
       </c>
-      <c r="C400" s="75">
+      <c r="C400" s="66">
         <v>11873</v>
       </c>
-      <c r="D400" s="75">
+      <c r="D400" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14222,13 +14215,13 @@
       <c r="A401" s="13">
         <v>400</v>
       </c>
-      <c r="B401" s="75">
+      <c r="B401" s="66">
         <v>65</v>
       </c>
-      <c r="C401" s="75">
+      <c r="C401" s="66">
         <v>11874</v>
       </c>
-      <c r="D401" s="75">
+      <c r="D401" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14236,13 +14229,13 @@
       <c r="A402" s="13">
         <v>401</v>
       </c>
-      <c r="B402" s="75">
+      <c r="B402" s="66">
         <v>65</v>
       </c>
-      <c r="C402" s="75">
+      <c r="C402" s="66">
         <v>11875</v>
       </c>
-      <c r="D402" s="75">
+      <c r="D402" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14250,13 +14243,13 @@
       <c r="A403" s="13">
         <v>402</v>
       </c>
-      <c r="B403" s="75">
+      <c r="B403" s="66">
         <v>65</v>
       </c>
-      <c r="C403" s="75">
+      <c r="C403" s="66">
         <v>11876</v>
       </c>
-      <c r="D403" s="75">
+      <c r="D403" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14264,13 +14257,13 @@
       <c r="A404" s="13">
         <v>403</v>
       </c>
-      <c r="B404" s="75">
+      <c r="B404" s="66">
         <v>66</v>
       </c>
-      <c r="C404" s="75">
+      <c r="C404" s="66">
         <v>11877</v>
       </c>
-      <c r="D404" s="75">
+      <c r="D404" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14278,13 +14271,13 @@
       <c r="A405" s="13">
         <v>404</v>
       </c>
-      <c r="B405" s="75">
+      <c r="B405" s="66">
         <v>66</v>
       </c>
-      <c r="C405" s="75">
+      <c r="C405" s="66">
         <v>11878</v>
       </c>
-      <c r="D405" s="75">
+      <c r="D405" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14292,13 +14285,13 @@
       <c r="A406" s="13">
         <v>405</v>
       </c>
-      <c r="B406" s="75">
+      <c r="B406" s="66">
         <v>66</v>
       </c>
-      <c r="C406" s="75">
+      <c r="C406" s="66">
         <v>11879</v>
       </c>
-      <c r="D406" s="75">
+      <c r="D406" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14306,13 +14299,13 @@
       <c r="A407" s="13">
         <v>406</v>
       </c>
-      <c r="B407" s="75">
+      <c r="B407" s="66">
         <v>66</v>
       </c>
-      <c r="C407" s="75">
+      <c r="C407" s="66">
         <v>11880</v>
       </c>
-      <c r="D407" s="75">
+      <c r="D407" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14320,13 +14313,13 @@
       <c r="A408" s="13">
         <v>407</v>
       </c>
-      <c r="B408" s="75">
+      <c r="B408" s="66">
         <v>66</v>
       </c>
-      <c r="C408" s="75">
+      <c r="C408" s="66">
         <v>11881</v>
       </c>
-      <c r="D408" s="75">
+      <c r="D408" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14334,13 +14327,13 @@
       <c r="A409" s="13">
         <v>408</v>
       </c>
-      <c r="B409" s="75">
+      <c r="B409" s="66">
         <v>66</v>
       </c>
-      <c r="C409" s="75">
+      <c r="C409" s="66">
         <v>11882</v>
       </c>
-      <c r="D409" s="75">
+      <c r="D409" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14348,13 +14341,13 @@
       <c r="A410" s="13">
         <v>409</v>
       </c>
-      <c r="B410" s="75">
+      <c r="B410" s="66">
         <v>67</v>
       </c>
-      <c r="C410" s="75">
+      <c r="C410" s="66">
         <v>11883</v>
       </c>
-      <c r="D410" s="75">
+      <c r="D410" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14362,13 +14355,13 @@
       <c r="A411" s="13">
         <v>410</v>
       </c>
-      <c r="B411" s="75">
+      <c r="B411" s="66">
         <v>67</v>
       </c>
-      <c r="C411" s="75">
+      <c r="C411" s="66">
         <v>11884</v>
       </c>
-      <c r="D411" s="75">
+      <c r="D411" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14376,13 +14369,13 @@
       <c r="A412" s="13">
         <v>411</v>
       </c>
-      <c r="B412" s="75">
+      <c r="B412" s="66">
         <v>67</v>
       </c>
-      <c r="C412" s="75">
+      <c r="C412" s="66">
         <v>11885</v>
       </c>
-      <c r="D412" s="75">
+      <c r="D412" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14390,13 +14383,13 @@
       <c r="A413" s="13">
         <v>412</v>
       </c>
-      <c r="B413" s="75">
+      <c r="B413" s="66">
         <v>67</v>
       </c>
-      <c r="C413" s="75">
+      <c r="C413" s="66">
         <v>11886</v>
       </c>
-      <c r="D413" s="75">
+      <c r="D413" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14404,13 +14397,13 @@
       <c r="A414" s="13">
         <v>413</v>
       </c>
-      <c r="B414" s="75">
+      <c r="B414" s="66">
         <v>67</v>
       </c>
-      <c r="C414" s="75">
+      <c r="C414" s="66">
         <v>11887</v>
       </c>
-      <c r="D414" s="75">
+      <c r="D414" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14418,13 +14411,13 @@
       <c r="A415" s="13">
         <v>414</v>
       </c>
-      <c r="B415" s="75">
+      <c r="B415" s="66">
         <v>67</v>
       </c>
-      <c r="C415" s="75">
+      <c r="C415" s="66">
         <v>11888</v>
       </c>
-      <c r="D415" s="75">
+      <c r="D415" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14432,13 +14425,13 @@
       <c r="A416" s="13">
         <v>415</v>
       </c>
-      <c r="B416" s="75">
+      <c r="B416" s="66">
         <v>68</v>
       </c>
-      <c r="C416" s="75">
+      <c r="C416" s="66">
         <v>11889</v>
       </c>
-      <c r="D416" s="75">
+      <c r="D416" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14446,13 +14439,13 @@
       <c r="A417" s="13">
         <v>416</v>
       </c>
-      <c r="B417" s="75">
+      <c r="B417" s="66">
         <v>68</v>
       </c>
-      <c r="C417" s="75">
+      <c r="C417" s="66">
         <v>11890</v>
       </c>
-      <c r="D417" s="75">
+      <c r="D417" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14460,13 +14453,13 @@
       <c r="A418" s="13">
         <v>417</v>
       </c>
-      <c r="B418" s="75">
+      <c r="B418" s="66">
         <v>68</v>
       </c>
-      <c r="C418" s="75">
+      <c r="C418" s="66">
         <v>11891</v>
       </c>
-      <c r="D418" s="75">
+      <c r="D418" s="66">
         <v>3200</v>
       </c>
     </row>
@@ -14474,13 +14467,13 @@
       <c r="A419" s="13">
         <v>418</v>
       </c>
-      <c r="B419" s="75">
+      <c r="B419" s="66">
         <v>68</v>
       </c>
-      <c r="C419" s="75">
+      <c r="C419" s="66">
         <v>11892</v>
       </c>
-      <c r="D419" s="75">
+      <c r="D419" s="66">
         <v>400</v>
       </c>
     </row>
@@ -14488,13 +14481,13 @@
       <c r="A420" s="13">
         <v>419</v>
       </c>
-      <c r="B420" s="75">
+      <c r="B420" s="66">
         <v>68</v>
       </c>
-      <c r="C420" s="75">
+      <c r="C420" s="66">
         <v>11893</v>
       </c>
-      <c r="D420" s="75">
+      <c r="D420" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14502,13 +14495,13 @@
       <c r="A421" s="13">
         <v>420</v>
       </c>
-      <c r="B421" s="75">
+      <c r="B421" s="66">
         <v>68</v>
       </c>
-      <c r="C421" s="75">
+      <c r="C421" s="66">
         <v>11894</v>
       </c>
-      <c r="D421" s="75">
+      <c r="D421" s="66">
         <v>0</v>
       </c>
     </row>
@@ -14516,13 +14509,13 @@
       <c r="A422" s="13">
         <v>421</v>
       </c>
-      <c r="B422" s="39">
+      <c r="B422" s="37">
         <v>69</v>
       </c>
-      <c r="C422" s="39">
+      <c r="C422" s="37">
         <v>11895</v>
       </c>
-      <c r="D422" s="39">
+      <c r="D422" s="37">
         <v>20</v>
       </c>
     </row>
@@ -14530,13 +14523,13 @@
       <c r="A423" s="13">
         <v>422</v>
       </c>
-      <c r="B423" s="39">
+      <c r="B423" s="37">
         <v>69</v>
       </c>
-      <c r="C423" s="39">
+      <c r="C423" s="37">
         <v>11896</v>
       </c>
-      <c r="D423" s="39">
+      <c r="D423" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14544,13 +14537,13 @@
       <c r="A424" s="13">
         <v>423</v>
       </c>
-      <c r="B424" s="39">
+      <c r="B424" s="37">
         <v>69</v>
       </c>
-      <c r="C424" s="39">
+      <c r="C424" s="37">
         <v>11897</v>
       </c>
-      <c r="D424" s="39">
+      <c r="D424" s="37">
         <v>25</v>
       </c>
     </row>
@@ -14558,13 +14551,13 @@
       <c r="A425" s="13">
         <v>424</v>
       </c>
-      <c r="B425" s="39">
+      <c r="B425" s="37">
         <v>69</v>
       </c>
-      <c r="C425" s="39">
+      <c r="C425" s="37">
         <v>11898</v>
       </c>
-      <c r="D425" s="39">
+      <c r="D425" s="37">
         <v>27</v>
       </c>
     </row>
@@ -14572,13 +14565,13 @@
       <c r="A426" s="13">
         <v>425</v>
       </c>
-      <c r="B426" s="39">
+      <c r="B426" s="37">
         <v>69</v>
       </c>
-      <c r="C426" s="39">
+      <c r="C426" s="37">
         <v>11899</v>
       </c>
-      <c r="D426" s="39">
+      <c r="D426" s="37">
         <v>3</v>
       </c>
     </row>
@@ -14586,13 +14579,13 @@
       <c r="A427" s="13">
         <v>426</v>
       </c>
-      <c r="B427" s="39">
+      <c r="B427" s="37">
         <v>69</v>
       </c>
-      <c r="C427" s="39">
+      <c r="C427" s="37">
         <v>11900</v>
       </c>
-      <c r="D427" s="39">
+      <c r="D427" s="37">
         <v>0</v>
       </c>
     </row>
@@ -14600,13 +14593,13 @@
       <c r="A428" s="13">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>70</v>
       </c>
-      <c r="C428" s="53">
+      <c r="C428" s="50">
         <v>11901</v>
       </c>
-      <c r="D428" s="53">
+      <c r="D428" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14614,13 +14607,13 @@
       <c r="A429" s="13">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>70</v>
       </c>
-      <c r="C429" s="53">
+      <c r="C429" s="50">
         <v>11902</v>
       </c>
-      <c r="D429" s="53">
+      <c r="D429" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14628,13 +14621,13 @@
       <c r="A430" s="13">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>70</v>
       </c>
-      <c r="C430" s="53">
+      <c r="C430" s="50">
         <v>11903</v>
       </c>
-      <c r="D430" s="53">
+      <c r="D430" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14642,13 +14635,13 @@
       <c r="A431" s="13">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>70</v>
       </c>
-      <c r="C431" s="53">
+      <c r="C431" s="50">
         <v>11904</v>
       </c>
-      <c r="D431" s="53">
+      <c r="D431" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14656,13 +14649,13 @@
       <c r="A432" s="13">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>70</v>
       </c>
-      <c r="C432" s="53">
+      <c r="C432" s="50">
         <v>11905</v>
       </c>
-      <c r="D432" s="53">
+      <c r="D432" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14670,13 +14663,13 @@
       <c r="A433" s="13">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>70</v>
       </c>
-      <c r="C433" s="53">
+      <c r="C433" s="50">
         <v>11906</v>
       </c>
-      <c r="D433" s="53">
+      <c r="D433" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14684,13 +14677,13 @@
       <c r="A434" s="13">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>70</v>
       </c>
-      <c r="C434" s="53">
+      <c r="C434" s="50">
         <v>11907</v>
       </c>
-      <c r="D434" s="53">
+      <c r="D434" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14698,13 +14691,13 @@
       <c r="A435" s="13">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>70</v>
       </c>
-      <c r="C435" s="53">
+      <c r="C435" s="50">
         <v>11908</v>
       </c>
-      <c r="D435" s="53">
+      <c r="D435" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14712,13 +14705,13 @@
       <c r="A436" s="13">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>70</v>
       </c>
-      <c r="C436" s="53">
+      <c r="C436" s="50">
         <v>11909</v>
       </c>
-      <c r="D436" s="53">
+      <c r="D436" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14726,13 +14719,13 @@
       <c r="A437" s="13">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>71</v>
       </c>
-      <c r="C437" s="53">
+      <c r="C437" s="50">
         <v>11911</v>
       </c>
-      <c r="D437" s="53">
+      <c r="D437" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14740,13 +14733,13 @@
       <c r="A438" s="13">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>71</v>
       </c>
-      <c r="C438" s="53">
+      <c r="C438" s="50">
         <v>11912</v>
       </c>
-      <c r="D438" s="53">
+      <c r="D438" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14754,13 +14747,13 @@
       <c r="A439" s="13">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>71</v>
       </c>
-      <c r="C439" s="53">
+      <c r="C439" s="50">
         <v>11913</v>
       </c>
-      <c r="D439" s="53">
+      <c r="D439" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14768,13 +14761,13 @@
       <c r="A440" s="13">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>71</v>
       </c>
-      <c r="C440" s="53">
+      <c r="C440" s="50">
         <v>11914</v>
       </c>
-      <c r="D440" s="53">
+      <c r="D440" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14782,13 +14775,13 @@
       <c r="A441" s="13">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>71</v>
       </c>
-      <c r="C441" s="53">
+      <c r="C441" s="50">
         <v>11915</v>
       </c>
-      <c r="D441" s="53">
+      <c r="D441" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14796,13 +14789,13 @@
       <c r="A442" s="13">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>71</v>
       </c>
-      <c r="C442" s="53">
+      <c r="C442" s="50">
         <v>11916</v>
       </c>
-      <c r="D442" s="53">
+      <c r="D442" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14810,13 +14803,13 @@
       <c r="A443" s="13">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>71</v>
       </c>
-      <c r="C443" s="53">
+      <c r="C443" s="50">
         <v>11917</v>
       </c>
-      <c r="D443" s="53">
+      <c r="D443" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14824,13 +14817,13 @@
       <c r="A444" s="13">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>71</v>
       </c>
-      <c r="C444" s="53">
+      <c r="C444" s="50">
         <v>11918</v>
       </c>
-      <c r="D444" s="53">
+      <c r="D444" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14838,13 +14831,13 @@
       <c r="A445" s="13">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>71</v>
       </c>
-      <c r="C445" s="53">
+      <c r="C445" s="50">
         <v>11919</v>
       </c>
-      <c r="D445" s="53">
+      <c r="D445" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14852,13 +14845,13 @@
       <c r="A446" s="13">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>72</v>
       </c>
-      <c r="C446" s="53">
+      <c r="C446" s="50">
         <v>11921</v>
       </c>
-      <c r="D446" s="53">
+      <c r="D446" s="50">
         <v>20</v>
       </c>
     </row>
@@ -14866,13 +14859,13 @@
       <c r="A447" s="13">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>72</v>
       </c>
-      <c r="C447" s="53">
+      <c r="C447" s="50">
         <v>11922</v>
       </c>
-      <c r="D447" s="53">
+      <c r="D447" s="50">
         <v>25</v>
       </c>
     </row>
@@ -14880,13 +14873,13 @@
       <c r="A448" s="13">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>72</v>
       </c>
-      <c r="C448" s="53">
+      <c r="C448" s="50">
         <v>11923</v>
       </c>
-      <c r="D448" s="53">
+      <c r="D448" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14894,13 +14887,13 @@
       <c r="A449" s="13">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>72</v>
       </c>
-      <c r="C449" s="53">
+      <c r="C449" s="50">
         <v>11924</v>
       </c>
-      <c r="D449" s="53">
+      <c r="D449" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14908,13 +14901,13 @@
       <c r="A450" s="13">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>72</v>
       </c>
-      <c r="C450" s="53">
+      <c r="C450" s="50">
         <v>11925</v>
       </c>
-      <c r="D450" s="53">
+      <c r="D450" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14922,13 +14915,13 @@
       <c r="A451" s="13">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>72</v>
       </c>
-      <c r="C451" s="53">
+      <c r="C451" s="50">
         <v>11926</v>
       </c>
-      <c r="D451" s="53">
+      <c r="D451" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14936,13 +14929,13 @@
       <c r="A452" s="13">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>72</v>
       </c>
-      <c r="C452" s="53">
+      <c r="C452" s="50">
         <v>11927</v>
       </c>
-      <c r="D452" s="53">
+      <c r="D452" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14950,13 +14943,13 @@
       <c r="A453" s="13">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>72</v>
       </c>
-      <c r="C453" s="53">
+      <c r="C453" s="50">
         <v>11928</v>
       </c>
-      <c r="D453" s="53">
+      <c r="D453" s="50">
         <v>10</v>
       </c>
     </row>
@@ -14964,13 +14957,13 @@
       <c r="A454" s="13">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>72</v>
       </c>
-      <c r="C454" s="53">
+      <c r="C454" s="50">
         <v>11929</v>
       </c>
-      <c r="D454" s="53">
+      <c r="D454" s="50">
         <v>5</v>
       </c>
     </row>
@@ -14996,14 +14989,14 @@
     <col min="2" max="2" width="19.375" style="13" customWidth="1"/>
     <col min="3" max="3" width="23.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.25" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -15012,10 +15005,10 @@
       <c r="D1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="34"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="17">
@@ -16400,7 +16393,7 @@
         <v>93</v>
       </c>
       <c r="D103" s="13"/>
-      <c r="E103" s="33"/>
+      <c r="E103" s="32"/>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="17">
@@ -16413,7 +16406,7 @@
         <v>98</v>
       </c>
       <c r="D104" s="13"/>
-      <c r="E104" s="33"/>
+      <c r="E104" s="32"/>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="17">
@@ -16456,7 +16449,7 @@
         <v>97</v>
       </c>
       <c r="D107" s="13"/>
-      <c r="E107" s="33"/>
+      <c r="E107" s="32"/>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="17">
@@ -16469,7 +16462,7 @@
         <v>58</v>
       </c>
       <c r="D108" s="13"/>
-      <c r="E108" s="33"/>
+      <c r="E108" s="32"/>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="17">
@@ -18884,13 +18877,13 @@
       <c r="B257" s="13">
         <v>11701</v>
       </c>
-      <c r="C257" s="35" t="s">
+      <c r="C257" s="34" t="s">
         <v>387</v>
       </c>
-      <c r="D257" s="36" t="s">
+      <c r="D257" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E257" s="37" t="s">
+      <c r="E257" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -18901,13 +18894,13 @@
       <c r="B258" s="13">
         <v>11702</v>
       </c>
-      <c r="C258" s="35" t="s">
+      <c r="C258" s="34" t="s">
         <v>389</v>
       </c>
-      <c r="D258" s="36" t="s">
+      <c r="D258" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E258" s="37" t="s">
+      <c r="E258" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -18918,13 +18911,13 @@
       <c r="B259" s="13">
         <v>11703</v>
       </c>
-      <c r="C259" s="35" t="s">
+      <c r="C259" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="D259" s="36" t="s">
+      <c r="D259" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E259" s="37" t="s">
+      <c r="E259" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -18935,13 +18928,13 @@
       <c r="B260" s="13">
         <v>11704</v>
       </c>
-      <c r="C260" s="35" t="s">
+      <c r="C260" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="D260" s="36" t="s">
+      <c r="D260" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E260" s="37" t="s">
+      <c r="E260" s="36" t="s">
         <v>393</v>
       </c>
     </row>
@@ -18952,13 +18945,13 @@
       <c r="B261" s="13">
         <v>11705</v>
       </c>
-      <c r="C261" s="35" t="s">
+      <c r="C261" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="D261" s="36" t="s">
+      <c r="D261" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E261" s="37" t="s">
+      <c r="E261" s="36" t="s">
         <v>395</v>
       </c>
     </row>
@@ -18969,13 +18962,13 @@
       <c r="B262" s="13">
         <v>11706</v>
       </c>
-      <c r="C262" s="35" t="s">
+      <c r="C262" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="D262" s="36" t="s">
+      <c r="D262" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E262" s="37" t="s">
+      <c r="E262" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -18986,13 +18979,13 @@
       <c r="B263" s="13">
         <v>11707</v>
       </c>
-      <c r="C263" s="35" t="s">
+      <c r="C263" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="D263" s="36" t="s">
+      <c r="D263" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E263" s="37" t="s">
+      <c r="E263" s="36" t="s">
         <v>398</v>
       </c>
     </row>
@@ -19003,13 +18996,13 @@
       <c r="B264" s="13">
         <v>11708</v>
       </c>
-      <c r="C264" s="35" t="s">
+      <c r="C264" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="D264" s="36" t="s">
+      <c r="D264" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E264" s="37" t="s">
+      <c r="E264" s="36" t="s">
         <v>400</v>
       </c>
     </row>
@@ -19020,13 +19013,13 @@
       <c r="B265" s="13">
         <v>11709</v>
       </c>
-      <c r="C265" s="35" t="s">
+      <c r="C265" s="34" t="s">
         <v>401</v>
       </c>
-      <c r="D265" s="36" t="s">
+      <c r="D265" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E265" s="37" t="s">
+      <c r="E265" s="36" t="s">
         <v>402</v>
       </c>
     </row>
@@ -19037,13 +19030,13 @@
       <c r="B266" s="13">
         <v>11710</v>
       </c>
-      <c r="C266" s="40" t="s">
+      <c r="C266" s="38" t="s">
         <v>389</v>
       </c>
-      <c r="D266" s="40" t="s">
+      <c r="D266" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E266" s="41" t="s">
+      <c r="E266" s="39" t="s">
         <v>433</v>
       </c>
     </row>
@@ -19054,13 +19047,13 @@
       <c r="B267" s="13">
         <v>11711</v>
       </c>
-      <c r="C267" s="40" t="s">
+      <c r="C267" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="D267" s="40" t="s">
+      <c r="D267" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E267" s="41" t="s">
+      <c r="E267" s="39" t="s">
         <v>457</v>
       </c>
     </row>
@@ -19071,13 +19064,13 @@
       <c r="B268" s="13">
         <v>11712</v>
       </c>
-      <c r="C268" s="40" t="s">
+      <c r="C268" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="D268" s="40" t="s">
+      <c r="D268" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E268" s="41" t="s">
+      <c r="E268" s="39" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19088,13 +19081,13 @@
       <c r="B269" s="13">
         <v>11713</v>
       </c>
-      <c r="C269" s="40" t="s">
+      <c r="C269" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D269" s="40" t="s">
+      <c r="D269" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E269" s="41" t="s">
+      <c r="E269" s="39" t="s">
         <v>458</v>
       </c>
     </row>
@@ -19105,13 +19098,13 @@
       <c r="B270" s="13">
         <v>11714</v>
       </c>
-      <c r="C270" s="40" t="s">
+      <c r="C270" s="38" t="s">
         <v>442</v>
       </c>
-      <c r="D270" s="40" t="s">
+      <c r="D270" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E270" s="41" t="s">
+      <c r="E270" s="39" t="s">
         <v>459</v>
       </c>
     </row>
@@ -19122,13 +19115,13 @@
       <c r="B271" s="13">
         <v>11715</v>
       </c>
-      <c r="C271" s="40" t="s">
+      <c r="C271" s="38" t="s">
         <v>443</v>
       </c>
-      <c r="D271" s="40" t="s">
+      <c r="D271" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E271" s="41" t="s">
+      <c r="E271" s="39" t="s">
         <v>460</v>
       </c>
     </row>
@@ -19139,13 +19132,13 @@
       <c r="B272" s="13">
         <v>11716</v>
       </c>
-      <c r="C272" s="40" t="s">
+      <c r="C272" s="38" t="s">
         <v>444</v>
       </c>
-      <c r="D272" s="40" t="s">
+      <c r="D272" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E272" s="41" t="s">
+      <c r="E272" s="39" t="s">
         <v>461</v>
       </c>
     </row>
@@ -19156,13 +19149,13 @@
       <c r="B273" s="13">
         <v>11717</v>
       </c>
-      <c r="C273" s="40" t="s">
+      <c r="C273" s="38" t="s">
         <v>445</v>
       </c>
-      <c r="D273" s="40" t="s">
+      <c r="D273" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E273" s="41" t="s">
+      <c r="E273" s="39" t="s">
         <v>462</v>
       </c>
     </row>
@@ -19173,13 +19166,13 @@
       <c r="B274" s="13">
         <v>11718</v>
       </c>
-      <c r="C274" s="40" t="s">
+      <c r="C274" s="38" t="s">
         <v>446</v>
       </c>
-      <c r="D274" s="40" t="s">
+      <c r="D274" s="38" t="s">
         <v>388</v>
       </c>
-      <c r="E274" s="41" t="s">
+      <c r="E274" s="39" t="s">
         <v>463</v>
       </c>
     </row>
@@ -19190,13 +19183,13 @@
       <c r="B275" s="13">
         <v>11719</v>
       </c>
-      <c r="C275" s="36" t="s">
+      <c r="C275" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="D275" s="36" t="s">
+      <c r="D275" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E275" s="37" t="s">
+      <c r="E275" s="36" t="s">
         <v>162</v>
       </c>
     </row>
@@ -19207,13 +19200,13 @@
       <c r="B276" s="13">
         <v>11720</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="C276" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="D276" s="36" t="s">
+      <c r="D276" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E276" s="37" t="s">
+      <c r="E276" s="36" t="s">
         <v>390</v>
       </c>
     </row>
@@ -19224,13 +19217,13 @@
       <c r="B277" s="13">
         <v>11721</v>
       </c>
-      <c r="C277" s="36" t="s">
+      <c r="C277" s="35" t="s">
         <v>449</v>
       </c>
-      <c r="D277" s="36" t="s">
+      <c r="D277" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E277" s="37" t="s">
+      <c r="E277" s="36" t="s">
         <v>157</v>
       </c>
     </row>
@@ -19241,13 +19234,13 @@
       <c r="B278" s="13">
         <v>11722</v>
       </c>
-      <c r="C278" s="36" t="s">
+      <c r="C278" s="35" t="s">
         <v>450</v>
       </c>
-      <c r="D278" s="36" t="s">
+      <c r="D278" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E278" s="37" t="s">
+      <c r="E278" s="36" t="s">
         <v>204</v>
       </c>
     </row>
@@ -19258,13 +19251,13 @@
       <c r="B279" s="13">
         <v>11723</v>
       </c>
-      <c r="C279" s="36" t="s">
+      <c r="C279" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="D279" s="36" t="s">
+      <c r="D279" s="35" t="s">
         <v>451</v>
       </c>
-      <c r="E279" s="37" t="s">
+      <c r="E279" s="36" t="s">
         <v>202</v>
       </c>
     </row>
@@ -19275,13 +19268,13 @@
       <c r="B280" s="13">
         <v>11724</v>
       </c>
-      <c r="C280" s="36" t="s">
+      <c r="C280" s="35" t="s">
         <v>454</v>
       </c>
-      <c r="D280" s="36" t="s">
+      <c r="D280" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E280" s="37" t="s">
+      <c r="E280" s="36" t="s">
         <v>464</v>
       </c>
     </row>
@@ -19292,13 +19285,13 @@
       <c r="B281" s="13">
         <v>11725</v>
       </c>
-      <c r="C281" s="36" t="s">
+      <c r="C281" s="35" t="s">
         <v>453</v>
       </c>
-      <c r="D281" s="36" t="s">
+      <c r="D281" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="E281" s="37" t="s">
+      <c r="E281" s="36" t="s">
         <v>136</v>
       </c>
     </row>
@@ -19309,13 +19302,13 @@
       <c r="B282" s="13">
         <v>11726</v>
       </c>
-      <c r="C282" s="36" t="s">
+      <c r="C282" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="D282" s="36" t="s">
+      <c r="D282" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E282" s="37" t="s">
+      <c r="E282" s="36" t="s">
         <v>465</v>
       </c>
     </row>
@@ -19326,13 +19319,13 @@
       <c r="B283" s="13">
         <v>11727</v>
       </c>
-      <c r="C283" s="36" t="s">
+      <c r="C283" s="35" t="s">
         <v>456</v>
       </c>
-      <c r="D283" s="36" t="s">
+      <c r="D283" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="E283" s="37" t="s">
+      <c r="E283" s="36" t="s">
         <v>466</v>
       </c>
     </row>
@@ -19485,7 +19478,7 @@
       <c r="D292" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E292" s="44" t="s">
+      <c r="E292" s="42" t="s">
         <v>485</v>
       </c>
     </row>
@@ -19502,7 +19495,7 @@
       <c r="D293" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E293" s="44" t="s">
+      <c r="E293" s="42" t="s">
         <v>486</v>
       </c>
     </row>
@@ -19519,7 +19512,7 @@
       <c r="D294" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E294" s="44" t="s">
+      <c r="E294" s="42" t="s">
         <v>487</v>
       </c>
     </row>
@@ -19536,7 +19529,7 @@
       <c r="D295" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E295" s="44" t="s">
+      <c r="E295" s="42" t="s">
         <v>488</v>
       </c>
     </row>
@@ -19553,7 +19546,7 @@
       <c r="D296" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E296" s="44" t="s">
+      <c r="E296" s="42" t="s">
         <v>489</v>
       </c>
     </row>
@@ -19567,10 +19560,10 @@
       <c r="C297" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D297" s="45" t="s">
+      <c r="D297" s="43" t="s">
         <v>499</v>
       </c>
-      <c r="E297" s="44" t="s">
+      <c r="E297" s="42" t="s">
         <v>504</v>
       </c>
     </row>
@@ -19584,10 +19577,10 @@
       <c r="C298" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="D298" s="45" t="s">
+      <c r="D298" s="43" t="s">
         <v>500</v>
       </c>
-      <c r="E298" s="44" t="s">
+      <c r="E298" s="42" t="s">
         <v>502</v>
       </c>
     </row>
@@ -19601,10 +19594,10 @@
       <c r="C299" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="D299" s="45" t="s">
+      <c r="D299" s="43" t="s">
         <v>501</v>
       </c>
-      <c r="E299" s="44" t="s">
+      <c r="E299" s="42" t="s">
         <v>503</v>
       </c>
     </row>
@@ -19621,7 +19614,7 @@
       <c r="D300" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E300" s="44" t="s">
+      <c r="E300" s="42" t="s">
         <v>579</v>
       </c>
     </row>
@@ -19638,7 +19631,7 @@
       <c r="D301" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E301" s="44" t="s">
+      <c r="E301" s="42" t="s">
         <v>575</v>
       </c>
     </row>
@@ -19655,7 +19648,7 @@
       <c r="D302" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E302" s="44" t="s">
+      <c r="E302" s="42" t="s">
         <v>576</v>
       </c>
     </row>
@@ -19672,7 +19665,7 @@
       <c r="D303" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E303" s="44" t="s">
+      <c r="E303" s="42" t="s">
         <v>577</v>
       </c>
     </row>
@@ -19689,7 +19682,7 @@
       <c r="D304" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="E304" s="44" t="s">
+      <c r="E304" s="42" t="s">
         <v>578</v>
       </c>
     </row>
@@ -19717,7 +19710,7 @@
       <c r="D306" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E306" s="44" t="s">
+      <c r="E306" s="42" t="s">
         <v>563</v>
       </c>
     </row>
@@ -19734,7 +19727,7 @@
       <c r="D307" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E307" s="44" t="s">
+      <c r="E307" s="42" t="s">
         <v>564</v>
       </c>
     </row>
@@ -19751,7 +19744,7 @@
       <c r="D308" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E308" s="44" t="s">
+      <c r="E308" s="42" t="s">
         <v>355</v>
       </c>
     </row>
@@ -19768,7 +19761,7 @@
       <c r="D309" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E309" s="44" t="s">
+      <c r="E309" s="42" t="s">
         <v>356</v>
       </c>
     </row>
@@ -19785,7 +19778,7 @@
       <c r="D310" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E310" s="44" t="s">
+      <c r="E310" s="42" t="s">
         <v>77</v>
       </c>
     </row>
@@ -19802,7 +19795,7 @@
       <c r="D311" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E311" s="44" t="s">
+      <c r="E311" s="42" t="s">
         <v>565</v>
       </c>
     </row>
@@ -19819,7 +19812,7 @@
       <c r="D312" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E312" s="44" t="s">
+      <c r="E312" s="42" t="s">
         <v>361</v>
       </c>
     </row>
@@ -19836,7 +19829,7 @@
       <c r="D313" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E313" s="44" t="s">
+      <c r="E313" s="42" t="s">
         <v>362</v>
       </c>
     </row>
@@ -19853,7 +19846,7 @@
       <c r="D314" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E314" s="44" t="s">
+      <c r="E314" s="42" t="s">
         <v>363</v>
       </c>
     </row>
@@ -19870,7 +19863,7 @@
       <c r="D315" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E315" s="44" t="s">
+      <c r="E315" s="42" t="s">
         <v>364</v>
       </c>
     </row>
@@ -19887,7 +19880,7 @@
       <c r="D316" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E316" s="44" t="s">
+      <c r="E316" s="42" t="s">
         <v>566</v>
       </c>
     </row>
@@ -19904,7 +19897,7 @@
       <c r="D317" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E317" s="44" t="s">
+      <c r="E317" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19921,7 +19914,7 @@
       <c r="D318" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E318" s="44" t="s">
+      <c r="E318" s="42" t="s">
         <v>365</v>
       </c>
     </row>
@@ -19938,7 +19931,7 @@
       <c r="D319" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E319" s="44" t="s">
+      <c r="E319" s="42" t="s">
         <v>366</v>
       </c>
     </row>
@@ -19955,7 +19948,7 @@
       <c r="D320" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E320" s="44" t="s">
+      <c r="E320" s="42" t="s">
         <v>367</v>
       </c>
     </row>
@@ -19972,7 +19965,7 @@
       <c r="D321" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E321" s="44" t="s">
+      <c r="E321" s="42" t="s">
         <v>368</v>
       </c>
     </row>
@@ -19989,7 +19982,7 @@
       <c r="D322" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E322" s="44" t="s">
+      <c r="E322" s="42" t="s">
         <v>567</v>
       </c>
     </row>
@@ -20006,7 +19999,7 @@
       <c r="D323" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E323" s="44" t="s">
+      <c r="E323" s="42" t="s">
         <v>568</v>
       </c>
     </row>
@@ -20023,7 +20016,7 @@
       <c r="D324" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E324" s="44" t="s">
+      <c r="E324" s="42" t="s">
         <v>369</v>
       </c>
     </row>
@@ -20040,7 +20033,7 @@
       <c r="D325" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E325" s="44" t="s">
+      <c r="E325" s="42" t="s">
         <v>370</v>
       </c>
     </row>
@@ -20057,7 +20050,7 @@
       <c r="D326" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E326" s="44" t="s">
+      <c r="E326" s="42" t="s">
         <v>371</v>
       </c>
     </row>
@@ -20074,7 +20067,7 @@
       <c r="D327" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E327" s="44" t="s">
+      <c r="E327" s="42" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20091,7 +20084,7 @@
       <c r="D328" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E328" s="44" t="s">
+      <c r="E328" s="42" t="s">
         <v>569</v>
       </c>
     </row>
@@ -20108,7 +20101,7 @@
       <c r="D329" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E329" s="44" t="s">
+      <c r="E329" s="42" t="s">
         <v>570</v>
       </c>
     </row>
@@ -20125,7 +20118,7 @@
       <c r="D330" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E330" s="44" t="s">
+      <c r="E330" s="42" t="s">
         <v>373</v>
       </c>
     </row>
@@ -20142,7 +20135,7 @@
       <c r="D331" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E331" s="44" t="s">
+      <c r="E331" s="42" t="s">
         <v>374</v>
       </c>
     </row>
@@ -20159,7 +20152,7 @@
       <c r="D332" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E332" s="44" t="s">
+      <c r="E332" s="42" t="s">
         <v>375</v>
       </c>
     </row>
@@ -20176,7 +20169,7 @@
       <c r="D333" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E333" s="44" t="s">
+      <c r="E333" s="42" t="s">
         <v>376</v>
       </c>
     </row>
@@ -20193,7 +20186,7 @@
       <c r="D334" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E334" s="44" t="s">
+      <c r="E334" s="42" t="s">
         <v>571</v>
       </c>
     </row>
@@ -20210,7 +20203,7 @@
       <c r="D335" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E335" s="44" t="s">
+      <c r="E335" s="42" t="s">
         <v>572</v>
       </c>
     </row>
@@ -20227,7 +20220,7 @@
       <c r="D336" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E336" s="44" t="s">
+      <c r="E336" s="42" t="s">
         <v>377</v>
       </c>
     </row>
@@ -20244,7 +20237,7 @@
       <c r="D337" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E337" s="44" t="s">
+      <c r="E337" s="42" t="s">
         <v>378</v>
       </c>
     </row>
@@ -20261,7 +20254,7 @@
       <c r="D338" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E338" s="44" t="s">
+      <c r="E338" s="42" t="s">
         <v>379</v>
       </c>
     </row>
@@ -20278,7 +20271,7 @@
       <c r="D339" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E339" s="44" t="s">
+      <c r="E339" s="42" t="s">
         <v>380</v>
       </c>
     </row>
@@ -20295,7 +20288,7 @@
       <c r="D340" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E340" s="44" t="s">
+      <c r="E340" s="42" t="s">
         <v>573</v>
       </c>
     </row>
@@ -20312,7 +20305,7 @@
       <c r="D341" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E341" s="44" t="s">
+      <c r="E341" s="42" t="s">
         <v>574</v>
       </c>
     </row>
@@ -20329,7 +20322,7 @@
       <c r="D342" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E342" s="33" t="s">
+      <c r="E342" s="32" t="s">
         <v>583</v>
       </c>
     </row>
@@ -20346,7 +20339,7 @@
       <c r="D343" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E343" s="33" t="s">
+      <c r="E343" s="32" t="s">
         <v>584</v>
       </c>
     </row>
@@ -20363,7 +20356,7 @@
       <c r="D344" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E344" s="33" t="s">
+      <c r="E344" s="32" t="s">
         <v>585</v>
       </c>
     </row>
@@ -20463,564 +20456,564 @@
         <v>606</v>
       </c>
       <c r="D350" s="13"/>
-      <c r="E350" s="33"/>
-    </row>
-    <row r="351" spans="1:5" s="52" customFormat="1">
+      <c r="E350" s="32"/>
+    </row>
+    <row r="351" spans="1:5" s="49" customFormat="1">
       <c r="A351" s="17">
         <v>350</v>
       </c>
       <c r="B351" s="13">
         <v>11824</v>
       </c>
-      <c r="C351" s="53" t="s">
+      <c r="C351" s="50" t="s">
         <v>613</v>
       </c>
-      <c r="D351" s="54" t="s">
+      <c r="D351" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E351" s="56" t="s">
+      <c r="E351" s="53" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="352" spans="1:5" s="52" customFormat="1">
+    <row r="352" spans="1:5" s="49" customFormat="1">
       <c r="A352" s="17">
         <v>351</v>
       </c>
       <c r="B352" s="13">
         <v>11825</v>
       </c>
-      <c r="C352" s="54" t="s">
+      <c r="C352" s="51" t="s">
         <v>614</v>
       </c>
-      <c r="D352" s="54" t="s">
+      <c r="D352" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E352" s="56" t="s">
+      <c r="E352" s="53" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="353" spans="1:5" s="52" customFormat="1">
+    <row r="353" spans="1:5" s="49" customFormat="1">
       <c r="A353" s="17">
         <v>352</v>
       </c>
       <c r="B353" s="13">
         <v>11826</v>
       </c>
-      <c r="C353" s="54" t="s">
+      <c r="C353" s="51" t="s">
         <v>615</v>
       </c>
-      <c r="D353" s="54" t="s">
+      <c r="D353" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E353" s="56" t="s">
+      <c r="E353" s="53" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="354" spans="1:5" s="52" customFormat="1">
+    <row r="354" spans="1:5" s="49" customFormat="1">
       <c r="A354" s="17">
         <v>353</v>
       </c>
       <c r="B354" s="13">
         <v>11827</v>
       </c>
-      <c r="C354" s="54" t="s">
+      <c r="C354" s="51" t="s">
         <v>616</v>
       </c>
-      <c r="D354" s="54" t="s">
+      <c r="D354" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E354" s="56" t="s">
+      <c r="E354" s="53" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="355" spans="1:5" s="52" customFormat="1">
+    <row r="355" spans="1:5" s="49" customFormat="1">
       <c r="A355" s="17">
         <v>354</v>
       </c>
       <c r="B355" s="13">
         <v>11828</v>
       </c>
-      <c r="C355" s="54" t="s">
+      <c r="C355" s="51" t="s">
         <v>617</v>
       </c>
-      <c r="D355" s="53" t="s">
+      <c r="D355" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E355" s="56" t="s">
+      <c r="E355" s="53" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="356" spans="1:5" s="52" customFormat="1">
+    <row r="356" spans="1:5" s="49" customFormat="1">
       <c r="A356" s="17">
         <v>355</v>
       </c>
       <c r="B356" s="13">
         <v>11829</v>
       </c>
-      <c r="C356" s="54" t="s">
+      <c r="C356" s="51" t="s">
         <v>618</v>
       </c>
-      <c r="D356" s="53" t="s">
+      <c r="D356" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E356" s="56" t="s">
+      <c r="E356" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="357" spans="1:5" s="52" customFormat="1">
+    <row r="357" spans="1:5" s="49" customFormat="1">
       <c r="A357" s="17">
         <v>356</v>
       </c>
       <c r="B357" s="13">
         <v>11830</v>
       </c>
-      <c r="C357" s="54" t="s">
+      <c r="C357" s="51" t="s">
         <v>619</v>
       </c>
-      <c r="D357" s="54" t="s">
+      <c r="D357" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E357" s="56" t="s">
+      <c r="E357" s="53" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="358" spans="1:5" s="52" customFormat="1">
+    <row r="358" spans="1:5" s="49" customFormat="1">
       <c r="A358" s="17">
         <v>357</v>
       </c>
       <c r="B358" s="13">
         <v>11831</v>
       </c>
-      <c r="C358" s="54" t="s">
+      <c r="C358" s="51" t="s">
         <v>620</v>
       </c>
-      <c r="D358" s="54" t="s">
+      <c r="D358" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E358" s="56" t="s">
+      <c r="E358" s="53" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="359" spans="1:5" s="52" customFormat="1">
+    <row r="359" spans="1:5" s="49" customFormat="1">
       <c r="A359" s="17">
         <v>358</v>
       </c>
       <c r="B359" s="13">
         <v>11832</v>
       </c>
-      <c r="C359" s="54" t="s">
+      <c r="C359" s="51" t="s">
         <v>621</v>
       </c>
-      <c r="D359" s="54" t="s">
+      <c r="D359" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E359" s="56" t="s">
+      <c r="E359" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="360" spans="1:5" s="46" customFormat="1">
+    <row r="360" spans="1:5" s="44" customFormat="1">
       <c r="A360" s="17">
         <v>359</v>
       </c>
       <c r="B360" s="13">
         <v>11833</v>
       </c>
-      <c r="C360" s="55" t="s">
+      <c r="C360" s="52" t="s">
         <v>622</v>
       </c>
-      <c r="D360" s="55" t="s">
+      <c r="D360" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E360" s="57" t="s">
+      <c r="E360" s="54" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="361" spans="1:5" s="46" customFormat="1">
+    <row r="361" spans="1:5" s="44" customFormat="1">
       <c r="A361" s="17">
         <v>360</v>
       </c>
       <c r="B361" s="13">
         <v>11834</v>
       </c>
-      <c r="C361" s="55" t="s">
+      <c r="C361" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="D361" s="55" t="s">
+      <c r="D361" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E361" s="57" t="s">
+      <c r="E361" s="54" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="362" spans="1:5" s="46" customFormat="1">
+    <row r="362" spans="1:5" s="44" customFormat="1">
       <c r="A362" s="17">
         <v>361</v>
       </c>
       <c r="B362" s="13">
         <v>11835</v>
       </c>
-      <c r="C362" s="55" t="s">
+      <c r="C362" s="52" t="s">
         <v>624</v>
       </c>
-      <c r="D362" s="55" t="s">
+      <c r="D362" s="52" t="s">
         <v>640</v>
       </c>
-      <c r="E362" s="57" t="s">
+      <c r="E362" s="54" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="363" spans="1:5" s="46" customFormat="1">
+    <row r="363" spans="1:5" s="44" customFormat="1">
       <c r="A363" s="17">
         <v>362</v>
       </c>
       <c r="B363" s="13">
         <v>11836</v>
       </c>
-      <c r="C363" s="55" t="s">
+      <c r="C363" s="52" t="s">
         <v>625</v>
       </c>
-      <c r="D363" s="55" t="s">
+      <c r="D363" s="52" t="s">
         <v>663</v>
       </c>
-      <c r="E363" s="57" t="s">
+      <c r="E363" s="54" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="364" spans="1:5" s="46" customFormat="1">
+    <row r="364" spans="1:5" s="44" customFormat="1">
       <c r="A364" s="17">
         <v>363</v>
       </c>
       <c r="B364" s="13">
         <v>11837</v>
       </c>
-      <c r="C364" s="55" t="s">
+      <c r="C364" s="52" t="s">
         <v>626</v>
       </c>
-      <c r="D364" s="47" t="s">
+      <c r="D364" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E364" s="57" t="s">
+      <c r="E364" s="54" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="365" spans="1:5" s="46" customFormat="1">
+    <row r="365" spans="1:5" s="44" customFormat="1">
       <c r="A365" s="17">
         <v>364</v>
       </c>
       <c r="B365" s="13">
         <v>11838</v>
       </c>
-      <c r="C365" s="55" t="s">
+      <c r="C365" s="52" t="s">
         <v>627</v>
       </c>
-      <c r="D365" s="47" t="s">
+      <c r="D365" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E365" s="57" t="s">
+      <c r="E365" s="54" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="366" spans="1:5" s="46" customFormat="1">
+    <row r="366" spans="1:5" s="44" customFormat="1">
       <c r="A366" s="17">
         <v>365</v>
       </c>
       <c r="B366" s="13">
         <v>11839</v>
       </c>
-      <c r="C366" s="55" t="s">
+      <c r="C366" s="52" t="s">
         <v>628</v>
       </c>
-      <c r="D366" s="55" t="s">
+      <c r="D366" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E366" s="57" t="s">
+      <c r="E366" s="54" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="367" spans="1:5" s="46" customFormat="1">
+    <row r="367" spans="1:5" s="44" customFormat="1">
       <c r="A367" s="17">
         <v>366</v>
       </c>
       <c r="B367" s="13">
         <v>11840</v>
       </c>
-      <c r="C367" s="55" t="s">
+      <c r="C367" s="52" t="s">
         <v>629</v>
       </c>
-      <c r="D367" s="55" t="s">
+      <c r="D367" s="52" t="s">
         <v>665</v>
       </c>
-      <c r="E367" s="57" t="s">
+      <c r="E367" s="54" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="368" spans="1:5" s="46" customFormat="1">
+    <row r="368" spans="1:5" s="44" customFormat="1">
       <c r="A368" s="17">
         <v>367</v>
       </c>
       <c r="B368" s="13">
         <v>11841</v>
       </c>
-      <c r="C368" s="55" t="s">
+      <c r="C368" s="52" t="s">
         <v>630</v>
       </c>
-      <c r="D368" s="55" t="s">
+      <c r="D368" s="52" t="s">
         <v>664</v>
       </c>
-      <c r="E368" s="57" t="s">
+      <c r="E368" s="54" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="369" spans="1:5" s="52" customFormat="1">
+    <row r="369" spans="1:5" s="49" customFormat="1">
       <c r="A369" s="17">
         <v>368</v>
       </c>
       <c r="B369" s="13">
         <v>11842</v>
       </c>
-      <c r="C369" s="54" t="s">
+      <c r="C369" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="D369" s="54" t="s">
+      <c r="D369" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E369" s="56" t="s">
+      <c r="E369" s="53" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="370" spans="1:5" s="52" customFormat="1">
+    <row r="370" spans="1:5" s="49" customFormat="1">
       <c r="A370" s="17">
         <v>369</v>
       </c>
       <c r="B370" s="13">
         <v>11843</v>
       </c>
-      <c r="C370" s="54" t="s">
+      <c r="C370" s="51" t="s">
         <v>632</v>
       </c>
-      <c r="D370" s="54" t="s">
+      <c r="D370" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E370" s="56" t="s">
+      <c r="E370" s="53" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="371" spans="1:5" s="52" customFormat="1">
+    <row r="371" spans="1:5" s="49" customFormat="1">
       <c r="A371" s="17">
         <v>370</v>
       </c>
       <c r="B371" s="13">
         <v>11844</v>
       </c>
-      <c r="C371" s="54" t="s">
+      <c r="C371" s="51" t="s">
         <v>633</v>
       </c>
-      <c r="D371" s="54" t="s">
+      <c r="D371" s="51" t="s">
         <v>640</v>
       </c>
-      <c r="E371" s="56" t="s">
+      <c r="E371" s="53" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="372" spans="1:5" s="52" customFormat="1">
+    <row r="372" spans="1:5" s="49" customFormat="1">
       <c r="A372" s="17">
         <v>371</v>
       </c>
       <c r="B372" s="13">
         <v>11845</v>
       </c>
-      <c r="C372" s="54" t="s">
+      <c r="C372" s="51" t="s">
         <v>634</v>
       </c>
-      <c r="D372" s="54" t="s">
+      <c r="D372" s="51" t="s">
         <v>663</v>
       </c>
-      <c r="E372" s="56" t="s">
+      <c r="E372" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="373" spans="1:5" s="52" customFormat="1">
+    <row r="373" spans="1:5" s="49" customFormat="1">
       <c r="A373" s="17">
         <v>372</v>
       </c>
       <c r="B373" s="13">
         <v>11846</v>
       </c>
-      <c r="C373" s="54" t="s">
+      <c r="C373" s="51" t="s">
         <v>635</v>
       </c>
-      <c r="D373" s="53" t="s">
+      <c r="D373" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E373" s="56" t="s">
+      <c r="E373" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="374" spans="1:5" s="52" customFormat="1">
+    <row r="374" spans="1:5" s="49" customFormat="1">
       <c r="A374" s="17">
         <v>373</v>
       </c>
       <c r="B374" s="13">
         <v>11847</v>
       </c>
-      <c r="C374" s="54" t="s">
+      <c r="C374" s="51" t="s">
         <v>636</v>
       </c>
-      <c r="D374" s="53" t="s">
+      <c r="D374" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E374" s="56" t="s">
+      <c r="E374" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="375" spans="1:5" s="52" customFormat="1">
+    <row r="375" spans="1:5" s="49" customFormat="1">
       <c r="A375" s="17">
         <v>374</v>
       </c>
       <c r="B375" s="13">
         <v>11848</v>
       </c>
-      <c r="C375" s="54" t="s">
+      <c r="C375" s="51" t="s">
         <v>637</v>
       </c>
-      <c r="D375" s="54" t="s">
+      <c r="D375" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E375" s="56" t="s">
+      <c r="E375" s="53" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="376" spans="1:5" s="52" customFormat="1">
+    <row r="376" spans="1:5" s="49" customFormat="1">
       <c r="A376" s="17">
         <v>375</v>
       </c>
       <c r="B376" s="13">
         <v>11849</v>
       </c>
-      <c r="C376" s="54" t="s">
+      <c r="C376" s="51" t="s">
         <v>638</v>
       </c>
-      <c r="D376" s="54" t="s">
+      <c r="D376" s="51" t="s">
         <v>665</v>
       </c>
-      <c r="E376" s="56" t="s">
+      <c r="E376" s="53" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="377" spans="1:5" s="52" customFormat="1">
+    <row r="377" spans="1:5" s="49" customFormat="1">
       <c r="A377" s="17">
         <v>376</v>
       </c>
       <c r="B377" s="13">
         <v>11850</v>
       </c>
-      <c r="C377" s="54" t="s">
+      <c r="C377" s="51" t="s">
         <v>639</v>
       </c>
-      <c r="D377" s="54" t="s">
+      <c r="D377" s="51" t="s">
         <v>664</v>
       </c>
-      <c r="E377" s="56" t="s">
+      <c r="E377" s="53" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="378" spans="1:5" s="65" customFormat="1">
+    <row r="378" spans="1:5" s="59" customFormat="1">
       <c r="A378" s="17">
         <v>377</v>
       </c>
       <c r="B378" s="13">
         <v>11851</v>
       </c>
-      <c r="C378" s="63" t="s">
+      <c r="C378" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="D378" s="63" t="s">
+      <c r="D378" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E378" s="66" t="s">
+      <c r="E378" s="60" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="379" spans="1:5" s="65" customFormat="1">
+    <row r="379" spans="1:5" s="59" customFormat="1">
       <c r="A379" s="17">
         <v>378</v>
       </c>
       <c r="B379" s="13">
         <v>11852</v>
       </c>
-      <c r="C379" s="67" t="s">
+      <c r="C379" s="61" t="s">
         <v>508</v>
       </c>
-      <c r="D379" s="67" t="s">
+      <c r="D379" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E379" s="66" t="s">
+      <c r="E379" s="60" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="380" spans="1:5" s="65" customFormat="1">
+    <row r="380" spans="1:5" s="59" customFormat="1">
       <c r="A380" s="17">
         <v>379</v>
       </c>
       <c r="B380" s="13">
         <v>11853</v>
       </c>
-      <c r="C380" s="67" t="s">
+      <c r="C380" s="61" t="s">
         <v>442</v>
       </c>
-      <c r="D380" s="63" t="s">
+      <c r="D380" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E380" s="66" t="s">
+      <c r="E380" s="60" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="381" spans="1:5" s="65" customFormat="1">
+    <row r="381" spans="1:5" s="59" customFormat="1">
       <c r="A381" s="17">
         <v>380</v>
       </c>
       <c r="B381" s="13">
         <v>11854</v>
       </c>
-      <c r="C381" s="67" t="s">
+      <c r="C381" s="61" t="s">
         <v>483</v>
       </c>
-      <c r="D381" s="67" t="s">
+      <c r="D381" s="61" t="s">
         <v>601</v>
       </c>
-      <c r="E381" s="66" t="s">
+      <c r="E381" s="60" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="382" spans="1:5" s="65" customFormat="1">
+    <row r="382" spans="1:5" s="59" customFormat="1">
       <c r="A382" s="17">
         <v>381</v>
       </c>
       <c r="B382" s="13">
         <v>11855</v>
       </c>
-      <c r="C382" s="67" t="s">
+      <c r="C382" s="61" t="s">
         <v>445</v>
       </c>
-      <c r="D382" s="67" t="s">
+      <c r="D382" s="61" t="s">
         <v>513</v>
       </c>
-      <c r="E382" s="66" t="s">
+      <c r="E382" s="60" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="383" spans="1:5" s="65" customFormat="1">
+    <row r="383" spans="1:5" s="59" customFormat="1">
       <c r="A383" s="17">
         <v>382</v>
       </c>
       <c r="B383" s="13">
         <v>11856</v>
       </c>
-      <c r="C383" s="67" t="s">
+      <c r="C383" s="61" t="s">
         <v>666</v>
       </c>
-      <c r="D383" s="63"/>
-      <c r="E383" s="68"/>
+      <c r="D383" s="57"/>
+      <c r="E383" s="62"/>
     </row>
     <row r="384" spans="1:5" ht="16.5">
       <c r="A384" s="17">
@@ -21032,10 +21025,10 @@
       <c r="C384" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D384" s="45" t="s">
+      <c r="D384" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="E384" s="44" t="s">
+      <c r="E384" s="42" t="s">
         <v>107</v>
       </c>
     </row>
@@ -21049,10 +21042,10 @@
       <c r="C385" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="D385" s="45" t="s">
+      <c r="D385" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="E385" s="44" t="s">
+      <c r="E385" s="42" t="s">
         <v>677</v>
       </c>
     </row>
@@ -21063,13 +21056,13 @@
       <c r="B386" s="13">
         <v>11859</v>
       </c>
-      <c r="C386" s="70" t="s">
+      <c r="C386" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="D386" s="75" t="s">
+      <c r="D386" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E386" s="77" t="s">
+      <c r="E386" s="67" t="s">
         <v>563</v>
       </c>
     </row>
@@ -21080,13 +21073,13 @@
       <c r="B387" s="13">
         <v>11860</v>
       </c>
-      <c r="C387" s="70" t="s">
+      <c r="C387" s="64" t="s">
         <v>529</v>
       </c>
-      <c r="D387" s="75" t="s">
+      <c r="D387" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E387" s="77" t="s">
+      <c r="E387" s="67" t="s">
         <v>564</v>
       </c>
     </row>
@@ -21097,13 +21090,13 @@
       <c r="B388" s="13">
         <v>11861</v>
       </c>
-      <c r="C388" s="70" t="s">
+      <c r="C388" s="64" t="s">
         <v>530</v>
       </c>
-      <c r="D388" s="75" t="s">
+      <c r="D388" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E388" s="77" t="s">
+      <c r="E388" s="67" t="s">
         <v>355</v>
       </c>
     </row>
@@ -21114,13 +21107,13 @@
       <c r="B389" s="13">
         <v>11862</v>
       </c>
-      <c r="C389" s="70" t="s">
+      <c r="C389" s="64" t="s">
         <v>531</v>
       </c>
-      <c r="D389" s="75" t="s">
+      <c r="D389" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E389" s="77" t="s">
+      <c r="E389" s="67" t="s">
         <v>356</v>
       </c>
     </row>
@@ -21131,13 +21124,13 @@
       <c r="B390" s="13">
         <v>11863</v>
       </c>
-      <c r="C390" s="70" t="s">
+      <c r="C390" s="64" t="s">
         <v>532</v>
       </c>
-      <c r="D390" s="75" t="s">
+      <c r="D390" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E390" s="77" t="s">
+      <c r="E390" s="67" t="s">
         <v>77</v>
       </c>
     </row>
@@ -21148,13 +21141,13 @@
       <c r="B391" s="13">
         <v>11864</v>
       </c>
-      <c r="C391" s="70" t="s">
+      <c r="C391" s="64" t="s">
         <v>533</v>
       </c>
-      <c r="D391" s="75" t="s">
+      <c r="D391" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E391" s="77" t="s">
+      <c r="E391" s="67" t="s">
         <v>565</v>
       </c>
     </row>
@@ -21165,13 +21158,13 @@
       <c r="B392" s="13">
         <v>11865</v>
       </c>
-      <c r="C392" s="70" t="s">
+      <c r="C392" s="64" t="s">
         <v>534</v>
       </c>
-      <c r="D392" s="75" t="s">
+      <c r="D392" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E392" s="77" t="s">
+      <c r="E392" s="67" t="s">
         <v>361</v>
       </c>
     </row>
@@ -21182,13 +21175,13 @@
       <c r="B393" s="13">
         <v>11866</v>
       </c>
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="64" t="s">
         <v>535</v>
       </c>
-      <c r="D393" s="75" t="s">
+      <c r="D393" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E393" s="77" t="s">
+      <c r="E393" s="67" t="s">
         <v>362</v>
       </c>
     </row>
@@ -21199,13 +21192,13 @@
       <c r="B394" s="13">
         <v>11867</v>
       </c>
-      <c r="C394" s="70" t="s">
+      <c r="C394" s="64" t="s">
         <v>536</v>
       </c>
-      <c r="D394" s="75" t="s">
+      <c r="D394" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E394" s="77" t="s">
+      <c r="E394" s="67" t="s">
         <v>363</v>
       </c>
     </row>
@@ -21216,13 +21209,13 @@
       <c r="B395" s="13">
         <v>11868</v>
       </c>
-      <c r="C395" s="70" t="s">
+      <c r="C395" s="64" t="s">
         <v>537</v>
       </c>
-      <c r="D395" s="75" t="s">
+      <c r="D395" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E395" s="77" t="s">
+      <c r="E395" s="67" t="s">
         <v>364</v>
       </c>
     </row>
@@ -21233,13 +21226,13 @@
       <c r="B396" s="13">
         <v>11869</v>
       </c>
-      <c r="C396" s="70" t="s">
+      <c r="C396" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="D396" s="75" t="s">
+      <c r="D396" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E396" s="77" t="s">
+      <c r="E396" s="67" t="s">
         <v>566</v>
       </c>
     </row>
@@ -21250,13 +21243,13 @@
       <c r="B397" s="13">
         <v>11870</v>
       </c>
-      <c r="C397" s="70" t="s">
+      <c r="C397" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D397" s="75" t="s">
+      <c r="D397" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E397" s="77" t="s">
+      <c r="E397" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21267,13 +21260,13 @@
       <c r="B398" s="13">
         <v>11871</v>
       </c>
-      <c r="C398" s="70" t="s">
+      <c r="C398" s="64" t="s">
         <v>539</v>
       </c>
-      <c r="D398" s="75" t="s">
+      <c r="D398" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E398" s="77" t="s">
+      <c r="E398" s="67" t="s">
         <v>365</v>
       </c>
     </row>
@@ -21284,13 +21277,13 @@
       <c r="B399" s="13">
         <v>11872</v>
       </c>
-      <c r="C399" s="70" t="s">
+      <c r="C399" s="64" t="s">
         <v>540</v>
       </c>
-      <c r="D399" s="75" t="s">
+      <c r="D399" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E399" s="77" t="s">
+      <c r="E399" s="67" t="s">
         <v>366</v>
       </c>
     </row>
@@ -21301,13 +21294,13 @@
       <c r="B400" s="13">
         <v>11873</v>
       </c>
-      <c r="C400" s="70" t="s">
+      <c r="C400" s="64" t="s">
         <v>541</v>
       </c>
-      <c r="D400" s="75" t="s">
+      <c r="D400" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E400" s="77" t="s">
+      <c r="E400" s="67" t="s">
         <v>367</v>
       </c>
     </row>
@@ -21318,13 +21311,13 @@
       <c r="B401" s="13">
         <v>11874</v>
       </c>
-      <c r="C401" s="70" t="s">
+      <c r="C401" s="64" t="s">
         <v>542</v>
       </c>
-      <c r="D401" s="75" t="s">
+      <c r="D401" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E401" s="77" t="s">
+      <c r="E401" s="67" t="s">
         <v>368</v>
       </c>
     </row>
@@ -21335,13 +21328,13 @@
       <c r="B402" s="13">
         <v>11875</v>
       </c>
-      <c r="C402" s="70" t="s">
+      <c r="C402" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="D402" s="75" t="s">
+      <c r="D402" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E402" s="77" t="s">
+      <c r="E402" s="67" t="s">
         <v>567</v>
       </c>
     </row>
@@ -21352,13 +21345,13 @@
       <c r="B403" s="13">
         <v>11876</v>
       </c>
-      <c r="C403" s="70" t="s">
+      <c r="C403" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="D403" s="75" t="s">
+      <c r="D403" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E403" s="77" t="s">
+      <c r="E403" s="67" t="s">
         <v>568</v>
       </c>
     </row>
@@ -21369,13 +21362,13 @@
       <c r="B404" s="13">
         <v>11877</v>
       </c>
-      <c r="C404" s="70" t="s">
+      <c r="C404" s="64" t="s">
         <v>545</v>
       </c>
-      <c r="D404" s="75" t="s">
+      <c r="D404" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E404" s="77" t="s">
+      <c r="E404" s="67" t="s">
         <v>369</v>
       </c>
     </row>
@@ -21386,13 +21379,13 @@
       <c r="B405" s="13">
         <v>11878</v>
       </c>
-      <c r="C405" s="70" t="s">
+      <c r="C405" s="64" t="s">
         <v>546</v>
       </c>
-      <c r="D405" s="75" t="s">
+      <c r="D405" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E405" s="77" t="s">
+      <c r="E405" s="67" t="s">
         <v>370</v>
       </c>
     </row>
@@ -21403,13 +21396,13 @@
       <c r="B406" s="13">
         <v>11879</v>
       </c>
-      <c r="C406" s="70" t="s">
+      <c r="C406" s="64" t="s">
         <v>547</v>
       </c>
-      <c r="D406" s="75" t="s">
+      <c r="D406" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E406" s="77" t="s">
+      <c r="E406" s="67" t="s">
         <v>371</v>
       </c>
     </row>
@@ -21420,13 +21413,13 @@
       <c r="B407" s="13">
         <v>11880</v>
       </c>
-      <c r="C407" s="70" t="s">
+      <c r="C407" s="64" t="s">
         <v>548</v>
       </c>
-      <c r="D407" s="75" t="s">
+      <c r="D407" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E407" s="77" t="s">
+      <c r="E407" s="67" t="s">
         <v>372</v>
       </c>
     </row>
@@ -21437,13 +21430,13 @@
       <c r="B408" s="13">
         <v>11881</v>
       </c>
-      <c r="C408" s="70" t="s">
+      <c r="C408" s="64" t="s">
         <v>549</v>
       </c>
-      <c r="D408" s="75" t="s">
+      <c r="D408" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E408" s="77" t="s">
+      <c r="E408" s="67" t="s">
         <v>569</v>
       </c>
     </row>
@@ -21454,13 +21447,13 @@
       <c r="B409" s="13">
         <v>11882</v>
       </c>
-      <c r="C409" s="70" t="s">
+      <c r="C409" s="64" t="s">
         <v>550</v>
       </c>
-      <c r="D409" s="75" t="s">
+      <c r="D409" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E409" s="77" t="s">
+      <c r="E409" s="67" t="s">
         <v>570</v>
       </c>
     </row>
@@ -21471,13 +21464,13 @@
       <c r="B410" s="13">
         <v>11883</v>
       </c>
-      <c r="C410" s="70" t="s">
+      <c r="C410" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="D410" s="75" t="s">
+      <c r="D410" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E410" s="77" t="s">
+      <c r="E410" s="67" t="s">
         <v>373</v>
       </c>
     </row>
@@ -21488,13 +21481,13 @@
       <c r="B411" s="13">
         <v>11884</v>
       </c>
-      <c r="C411" s="70" t="s">
+      <c r="C411" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="D411" s="75" t="s">
+      <c r="D411" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E411" s="77" t="s">
+      <c r="E411" s="67" t="s">
         <v>374</v>
       </c>
     </row>
@@ -21505,13 +21498,13 @@
       <c r="B412" s="13">
         <v>11885</v>
       </c>
-      <c r="C412" s="70" t="s">
+      <c r="C412" s="64" t="s">
         <v>553</v>
       </c>
-      <c r="D412" s="75" t="s">
+      <c r="D412" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E412" s="77" t="s">
+      <c r="E412" s="67" t="s">
         <v>375</v>
       </c>
     </row>
@@ -21522,13 +21515,13 @@
       <c r="B413" s="13">
         <v>11886</v>
       </c>
-      <c r="C413" s="70" t="s">
+      <c r="C413" s="64" t="s">
         <v>554</v>
       </c>
-      <c r="D413" s="75" t="s">
+      <c r="D413" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E413" s="77" t="s">
+      <c r="E413" s="67" t="s">
         <v>376</v>
       </c>
     </row>
@@ -21539,13 +21532,13 @@
       <c r="B414" s="13">
         <v>11887</v>
       </c>
-      <c r="C414" s="70" t="s">
+      <c r="C414" s="64" t="s">
         <v>555</v>
       </c>
-      <c r="D414" s="75" t="s">
+      <c r="D414" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E414" s="77" t="s">
+      <c r="E414" s="67" t="s">
         <v>571</v>
       </c>
     </row>
@@ -21556,13 +21549,13 @@
       <c r="B415" s="13">
         <v>11888</v>
       </c>
-      <c r="C415" s="70" t="s">
+      <c r="C415" s="64" t="s">
         <v>556</v>
       </c>
-      <c r="D415" s="75" t="s">
+      <c r="D415" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E415" s="77" t="s">
+      <c r="E415" s="67" t="s">
         <v>572</v>
       </c>
     </row>
@@ -21573,13 +21566,13 @@
       <c r="B416" s="13">
         <v>11889</v>
       </c>
-      <c r="C416" s="70" t="s">
+      <c r="C416" s="64" t="s">
         <v>557</v>
       </c>
-      <c r="D416" s="75" t="s">
+      <c r="D416" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E416" s="77" t="s">
+      <c r="E416" s="67" t="s">
         <v>377</v>
       </c>
     </row>
@@ -21590,13 +21583,13 @@
       <c r="B417" s="13">
         <v>11890</v>
       </c>
-      <c r="C417" s="70" t="s">
+      <c r="C417" s="64" t="s">
         <v>558</v>
       </c>
-      <c r="D417" s="75" t="s">
+      <c r="D417" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E417" s="77" t="s">
+      <c r="E417" s="67" t="s">
         <v>378</v>
       </c>
     </row>
@@ -21607,13 +21600,13 @@
       <c r="B418" s="13">
         <v>11891</v>
       </c>
-      <c r="C418" s="70" t="s">
+      <c r="C418" s="64" t="s">
         <v>559</v>
       </c>
-      <c r="D418" s="75" t="s">
+      <c r="D418" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E418" s="77" t="s">
+      <c r="E418" s="67" t="s">
         <v>379</v>
       </c>
     </row>
@@ -21624,13 +21617,13 @@
       <c r="B419" s="13">
         <v>11892</v>
       </c>
-      <c r="C419" s="70" t="s">
+      <c r="C419" s="64" t="s">
         <v>560</v>
       </c>
-      <c r="D419" s="75" t="s">
+      <c r="D419" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E419" s="77" t="s">
+      <c r="E419" s="67" t="s">
         <v>380</v>
       </c>
     </row>
@@ -21641,13 +21634,13 @@
       <c r="B420" s="13">
         <v>11893</v>
       </c>
-      <c r="C420" s="70" t="s">
+      <c r="C420" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="D420" s="75" t="s">
+      <c r="D420" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E420" s="77" t="s">
+      <c r="E420" s="67" t="s">
         <v>573</v>
       </c>
     </row>
@@ -21658,13 +21651,13 @@
       <c r="B421" s="13">
         <v>11894</v>
       </c>
-      <c r="C421" s="70" t="s">
+      <c r="C421" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="D421" s="75" t="s">
+      <c r="D421" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="E421" s="77" t="s">
+      <c r="E421" s="67" t="s">
         <v>574</v>
       </c>
     </row>
@@ -21675,13 +21668,13 @@
       <c r="B422" s="13">
         <v>11895</v>
       </c>
-      <c r="C422" s="40" t="s">
+      <c r="C422" s="38" t="s">
         <v>680</v>
       </c>
-      <c r="D422" s="39" t="s">
+      <c r="D422" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E422" s="41" t="s">
+      <c r="E422" s="39" t="s">
         <v>686</v>
       </c>
     </row>
@@ -21692,13 +21685,13 @@
       <c r="B423" s="13">
         <v>11896</v>
       </c>
-      <c r="C423" s="40" t="s">
+      <c r="C423" s="38" t="s">
         <v>681</v>
       </c>
-      <c r="D423" s="40" t="s">
+      <c r="D423" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E423" s="41" t="s">
+      <c r="E423" s="39" t="s">
         <v>687</v>
       </c>
     </row>
@@ -21709,13 +21702,13 @@
       <c r="B424" s="13">
         <v>11897</v>
       </c>
-      <c r="C424" s="40" t="s">
+      <c r="C424" s="38" t="s">
         <v>682</v>
       </c>
-      <c r="D424" s="39" t="s">
+      <c r="D424" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E424" s="41" t="s">
+      <c r="E424" s="39" t="s">
         <v>688</v>
       </c>
     </row>
@@ -21726,13 +21719,13 @@
       <c r="B425" s="13">
         <v>11898</v>
       </c>
-      <c r="C425" s="40" t="s">
+      <c r="C425" s="38" t="s">
         <v>683</v>
       </c>
-      <c r="D425" s="40" t="s">
+      <c r="D425" s="38" t="s">
         <v>601</v>
       </c>
-      <c r="E425" s="41" t="s">
+      <c r="E425" s="39" t="s">
         <v>689</v>
       </c>
     </row>
@@ -21743,13 +21736,13 @@
       <c r="B426" s="13">
         <v>11899</v>
       </c>
-      <c r="C426" s="40" t="s">
+      <c r="C426" s="38" t="s">
         <v>684</v>
       </c>
-      <c r="D426" s="39" t="s">
+      <c r="D426" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="E426" s="41" t="s">
+      <c r="E426" s="39" t="s">
         <v>690</v>
       </c>
     </row>
@@ -21760,24 +21753,24 @@
       <c r="B427" s="13">
         <v>11900</v>
       </c>
-      <c r="C427" s="40" t="s">
+      <c r="C427" s="38" t="s">
         <v>685</v>
       </c>
-      <c r="D427" s="39"/>
-      <c r="E427" s="82"/>
+      <c r="D427" s="37"/>
+      <c r="E427" s="68"/>
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="17">
         <v>427</v>
       </c>
-      <c r="B428" s="53">
+      <c r="B428" s="50">
         <v>11901</v>
       </c>
-      <c r="C428" s="53"/>
-      <c r="D428" s="53" t="s">
+      <c r="C428" s="50"/>
+      <c r="D428" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E428" s="56" t="s">
+      <c r="E428" s="53" t="s">
         <v>699</v>
       </c>
     </row>
@@ -21785,14 +21778,14 @@
       <c r="A429" s="17">
         <v>428</v>
       </c>
-      <c r="B429" s="53">
+      <c r="B429" s="50">
         <v>11902</v>
       </c>
-      <c r="C429" s="53"/>
-      <c r="D429" s="53" t="s">
+      <c r="C429" s="50"/>
+      <c r="D429" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E429" s="56" t="s">
+      <c r="E429" s="53" t="s">
         <v>700</v>
       </c>
     </row>
@@ -21800,14 +21793,14 @@
       <c r="A430" s="17">
         <v>429</v>
       </c>
-      <c r="B430" s="53">
+      <c r="B430" s="50">
         <v>11903</v>
       </c>
-      <c r="C430" s="53"/>
-      <c r="D430" s="53" t="s">
+      <c r="C430" s="50"/>
+      <c r="D430" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E430" s="56" t="s">
+      <c r="E430" s="53" t="s">
         <v>701</v>
       </c>
     </row>
@@ -21815,14 +21808,14 @@
       <c r="A431" s="17">
         <v>430</v>
       </c>
-      <c r="B431" s="53">
+      <c r="B431" s="50">
         <v>11904</v>
       </c>
-      <c r="C431" s="53"/>
-      <c r="D431" s="54" t="s">
+      <c r="C431" s="50"/>
+      <c r="D431" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E431" s="56" t="s">
+      <c r="E431" s="53" t="s">
         <v>702</v>
       </c>
     </row>
@@ -21830,14 +21823,14 @@
       <c r="A432" s="17">
         <v>431</v>
       </c>
-      <c r="B432" s="53">
+      <c r="B432" s="50">
         <v>11905</v>
       </c>
-      <c r="C432" s="53"/>
-      <c r="D432" s="54" t="s">
+      <c r="C432" s="50"/>
+      <c r="D432" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E432" s="56" t="s">
+      <c r="E432" s="53" t="s">
         <v>703</v>
       </c>
     </row>
@@ -21845,14 +21838,14 @@
       <c r="A433" s="17">
         <v>432</v>
       </c>
-      <c r="B433" s="53">
+      <c r="B433" s="50">
         <v>11906</v>
       </c>
-      <c r="C433" s="53"/>
-      <c r="D433" s="54" t="s">
+      <c r="C433" s="50"/>
+      <c r="D433" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E433" s="56" t="s">
+      <c r="E433" s="53" t="s">
         <v>704</v>
       </c>
     </row>
@@ -21860,14 +21853,14 @@
       <c r="A434" s="17">
         <v>433</v>
       </c>
-      <c r="B434" s="53">
+      <c r="B434" s="50">
         <v>11907</v>
       </c>
-      <c r="C434" s="53"/>
-      <c r="D434" s="54" t="s">
+      <c r="C434" s="50"/>
+      <c r="D434" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E434" s="56" t="s">
+      <c r="E434" s="53" t="s">
         <v>705</v>
       </c>
     </row>
@@ -21875,14 +21868,14 @@
       <c r="A435" s="17">
         <v>434</v>
       </c>
-      <c r="B435" s="53">
+      <c r="B435" s="50">
         <v>11908</v>
       </c>
-      <c r="C435" s="53"/>
-      <c r="D435" s="54" t="s">
+      <c r="C435" s="50"/>
+      <c r="D435" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E435" s="56" t="s">
+      <c r="E435" s="53" t="s">
         <v>706</v>
       </c>
     </row>
@@ -21890,14 +21883,14 @@
       <c r="A436" s="17">
         <v>435</v>
       </c>
-      <c r="B436" s="53">
+      <c r="B436" s="50">
         <v>11909</v>
       </c>
-      <c r="C436" s="53"/>
-      <c r="D436" s="54" t="s">
+      <c r="C436" s="50"/>
+      <c r="D436" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E436" s="56" t="s">
+      <c r="E436" s="53" t="s">
         <v>707</v>
       </c>
     </row>
@@ -21905,14 +21898,14 @@
       <c r="A437" s="17">
         <v>436</v>
       </c>
-      <c r="B437" s="53">
+      <c r="B437" s="50">
         <v>11911</v>
       </c>
-      <c r="C437" s="53"/>
-      <c r="D437" s="53" t="s">
+      <c r="C437" s="50"/>
+      <c r="D437" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E437" s="56" t="s">
+      <c r="E437" s="53" t="s">
         <v>708</v>
       </c>
     </row>
@@ -21920,14 +21913,14 @@
       <c r="A438" s="17">
         <v>437</v>
       </c>
-      <c r="B438" s="53">
+      <c r="B438" s="50">
         <v>11912</v>
       </c>
-      <c r="C438" s="53"/>
-      <c r="D438" s="53" t="s">
+      <c r="C438" s="50"/>
+      <c r="D438" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E438" s="56" t="s">
+      <c r="E438" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -21935,14 +21928,14 @@
       <c r="A439" s="17">
         <v>438</v>
       </c>
-      <c r="B439" s="53">
+      <c r="B439" s="50">
         <v>11913</v>
       </c>
-      <c r="C439" s="53"/>
-      <c r="D439" s="53" t="s">
+      <c r="C439" s="50"/>
+      <c r="D439" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E439" s="56" t="s">
+      <c r="E439" s="53" t="s">
         <v>710</v>
       </c>
     </row>
@@ -21950,14 +21943,14 @@
       <c r="A440" s="17">
         <v>439</v>
       </c>
-      <c r="B440" s="53">
+      <c r="B440" s="50">
         <v>11914</v>
       </c>
-      <c r="C440" s="53"/>
-      <c r="D440" s="54" t="s">
+      <c r="C440" s="50"/>
+      <c r="D440" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E440" s="56" t="s">
+      <c r="E440" s="53" t="s">
         <v>711</v>
       </c>
     </row>
@@ -21965,14 +21958,14 @@
       <c r="A441" s="17">
         <v>440</v>
       </c>
-      <c r="B441" s="53">
+      <c r="B441" s="50">
         <v>11915</v>
       </c>
-      <c r="C441" s="53"/>
-      <c r="D441" s="54" t="s">
+      <c r="C441" s="50"/>
+      <c r="D441" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E441" s="56" t="s">
+      <c r="E441" s="53" t="s">
         <v>712</v>
       </c>
     </row>
@@ -21980,14 +21973,14 @@
       <c r="A442" s="17">
         <v>441</v>
       </c>
-      <c r="B442" s="53">
+      <c r="B442" s="50">
         <v>11916</v>
       </c>
-      <c r="C442" s="53"/>
-      <c r="D442" s="54" t="s">
+      <c r="C442" s="50"/>
+      <c r="D442" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E442" s="56" t="s">
+      <c r="E442" s="53" t="s">
         <v>713</v>
       </c>
     </row>
@@ -21995,14 +21988,14 @@
       <c r="A443" s="17">
         <v>442</v>
       </c>
-      <c r="B443" s="53">
+      <c r="B443" s="50">
         <v>11917</v>
       </c>
-      <c r="C443" s="53"/>
-      <c r="D443" s="54" t="s">
+      <c r="C443" s="50"/>
+      <c r="D443" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E443" s="56" t="s">
+      <c r="E443" s="53" t="s">
         <v>714</v>
       </c>
     </row>
@@ -22010,14 +22003,14 @@
       <c r="A444" s="17">
         <v>443</v>
       </c>
-      <c r="B444" s="53">
+      <c r="B444" s="50">
         <v>11918</v>
       </c>
-      <c r="C444" s="53"/>
-      <c r="D444" s="54" t="s">
+      <c r="C444" s="50"/>
+      <c r="D444" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E444" s="56" t="s">
+      <c r="E444" s="53" t="s">
         <v>715</v>
       </c>
     </row>
@@ -22025,14 +22018,14 @@
       <c r="A445" s="17">
         <v>444</v>
       </c>
-      <c r="B445" s="53">
+      <c r="B445" s="50">
         <v>11919</v>
       </c>
-      <c r="C445" s="53"/>
-      <c r="D445" s="54" t="s">
+      <c r="C445" s="50"/>
+      <c r="D445" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E445" s="56" t="s">
+      <c r="E445" s="53" t="s">
         <v>716</v>
       </c>
     </row>
@@ -22040,14 +22033,14 @@
       <c r="A446" s="17">
         <v>445</v>
       </c>
-      <c r="B446" s="53">
+      <c r="B446" s="50">
         <v>11921</v>
       </c>
-      <c r="C446" s="53"/>
-      <c r="D446" s="53" t="s">
+      <c r="C446" s="50"/>
+      <c r="D446" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E446" s="56" t="s">
+      <c r="E446" s="53" t="s">
         <v>709</v>
       </c>
     </row>
@@ -22055,14 +22048,14 @@
       <c r="A447" s="17">
         <v>446</v>
       </c>
-      <c r="B447" s="53">
+      <c r="B447" s="50">
         <v>11922</v>
       </c>
-      <c r="C447" s="53"/>
-      <c r="D447" s="53" t="s">
+      <c r="C447" s="50"/>
+      <c r="D447" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E447" s="56" t="s">
+      <c r="E447" s="53" t="s">
         <v>717</v>
       </c>
     </row>
@@ -22070,14 +22063,14 @@
       <c r="A448" s="17">
         <v>447</v>
       </c>
-      <c r="B448" s="53">
+      <c r="B448" s="50">
         <v>11923</v>
       </c>
-      <c r="C448" s="53"/>
-      <c r="D448" s="53" t="s">
+      <c r="C448" s="50"/>
+      <c r="D448" s="50" t="s">
         <v>697</v>
       </c>
-      <c r="E448" s="56" t="s">
+      <c r="E448" s="53" t="s">
         <v>718</v>
       </c>
     </row>
@@ -22085,14 +22078,14 @@
       <c r="A449" s="17">
         <v>448</v>
       </c>
-      <c r="B449" s="53">
+      <c r="B449" s="50">
         <v>11924</v>
       </c>
-      <c r="C449" s="53"/>
-      <c r="D449" s="54" t="s">
+      <c r="C449" s="50"/>
+      <c r="D449" s="51" t="s">
         <v>698</v>
       </c>
-      <c r="E449" s="56" t="s">
+      <c r="E449" s="53" t="s">
         <v>719</v>
       </c>
     </row>
@@ -22100,14 +22093,14 @@
       <c r="A450" s="17">
         <v>449</v>
       </c>
-      <c r="B450" s="53">
+      <c r="B450" s="50">
         <v>11925</v>
       </c>
-      <c r="C450" s="53"/>
-      <c r="D450" s="54" t="s">
+      <c r="C450" s="50"/>
+      <c r="D450" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E450" s="56" t="s">
+      <c r="E450" s="53" t="s">
         <v>720</v>
       </c>
     </row>
@@ -22115,14 +22108,14 @@
       <c r="A451" s="17">
         <v>450</v>
       </c>
-      <c r="B451" s="53">
+      <c r="B451" s="50">
         <v>11926</v>
       </c>
-      <c r="C451" s="53"/>
-      <c r="D451" s="54" t="s">
+      <c r="C451" s="50"/>
+      <c r="D451" s="51" t="s">
         <v>601</v>
       </c>
-      <c r="E451" s="56" t="s">
+      <c r="E451" s="53" t="s">
         <v>721</v>
       </c>
     </row>
@@ -22130,14 +22123,14 @@
       <c r="A452" s="17">
         <v>451</v>
       </c>
-      <c r="B452" s="53">
+      <c r="B452" s="50">
         <v>11927</v>
       </c>
-      <c r="C452" s="53"/>
-      <c r="D452" s="54" t="s">
+      <c r="C452" s="50"/>
+      <c r="D452" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E452" s="56" t="s">
+      <c r="E452" s="53" t="s">
         <v>722</v>
       </c>
     </row>
@@ -22145,14 +22138,14 @@
       <c r="A453" s="17">
         <v>452</v>
       </c>
-      <c r="B453" s="53">
+      <c r="B453" s="50">
         <v>11928</v>
       </c>
-      <c r="C453" s="53"/>
-      <c r="D453" s="54" t="s">
+      <c r="C453" s="50"/>
+      <c r="D453" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E453" s="56" t="s">
+      <c r="E453" s="53" t="s">
         <v>723</v>
       </c>
     </row>
@@ -22160,14 +22153,14 @@
       <c r="A454" s="17">
         <v>453</v>
       </c>
-      <c r="B454" s="53">
+      <c r="B454" s="50">
         <v>11929</v>
       </c>
-      <c r="C454" s="53"/>
-      <c r="D454" s="54" t="s">
+      <c r="C454" s="50"/>
+      <c r="D454" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="E454" s="56" t="s">
+      <c r="E454" s="53" t="s">
         <v>724</v>
       </c>
     </row>
